--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A77113-5296-4F38-A8A5-6144F0EFB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4BE357-1E6D-4362-9BBC-A6225EF93309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>for reference: a, á, b, c, č, d, e, é, f, g, h, i, j, k, l, m, n, ň, o, ó, p, r, s, š, t, u, u̇, v, w, z, ž</t>
-  </si>
-  <si>
-    <t>Šhálská Lángyska Plána</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Verbs:</t>
   </si>
@@ -54,9 +48,6 @@
     <t>nošča, wašha, léšhta</t>
   </si>
   <si>
-    <t>Prezéntka Postna:  (Present Tense)</t>
-  </si>
-  <si>
     <t>nošču, wašhu, léšhtu</t>
   </si>
   <si>
@@ -78,18 +69,6 @@
     <t>noščávu, wášhávu, lešhtávu</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Prezéntka Ňowna:  (Progreessive Tense)</t>
-  </si>
-  <si>
-    <t>Prezéntka Pástna:  (Past Tense)</t>
-  </si>
-  <si>
-    <t>Prezéntka Futu̇ra:  (Future Tense)</t>
-  </si>
-  <si>
     <t>noščňa, wašhňa, léšhtňa</t>
   </si>
   <si>
@@ -117,21 +96,6 @@
     <t>noščavu, wášhavu, lešhtavu</t>
   </si>
   <si>
-    <t>noščra, wašhra, léšhta</t>
-  </si>
-  <si>
-    <t>noščru, wašhru, léšhtru</t>
-  </si>
-  <si>
-    <t>noščre, wášhre, léšhtre</t>
-  </si>
-  <si>
-    <t>noščávra, wašhávra, léšhtávra</t>
-  </si>
-  <si>
-    <t>noščávru, wášhávru, lešhtávru</t>
-  </si>
-  <si>
     <t>Example words: bild (easy), gróžčin (happy)</t>
   </si>
   <si>
@@ -145,13 +109,268 @@
   </si>
   <si>
     <t>Superlative: bildonówe, gróžčinonówe</t>
+  </si>
+  <si>
+    <t>This project includes almost all of the rules in Shalton.</t>
+  </si>
+  <si>
+    <t>alphabet: a, á, b, c, č, d, e, é, f, g, h, i, j, k, l, m, n, ň, o, ó, p, r, ŕ, s, š, t, u, u̇, v, w, z, ž</t>
+  </si>
+  <si>
+    <t>Vowels:</t>
+  </si>
+  <si>
+    <t>Consonants:</t>
+  </si>
+  <si>
+    <t>Grapheme</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>u̇</t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>e:</t>
+  </si>
+  <si>
+    <t>ý</t>
+  </si>
+  <si>
+    <t>i:</t>
+  </si>
+  <si>
+    <t>u:</t>
+  </si>
+  <si>
+    <t>ɔ</t>
+  </si>
+  <si>
+    <t>IPA short</t>
+  </si>
+  <si>
+    <t>IPA long</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>č</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ň</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ŕ</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>š</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ž</t>
+  </si>
+  <si>
+    <t>nj</t>
+  </si>
+  <si>
+    <t>rj</t>
+  </si>
+  <si>
+    <t>Digraphs:</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>šh</t>
+  </si>
+  <si>
+    <t>čh</t>
+  </si>
+  <si>
+    <t>dž</t>
+  </si>
+  <si>
+    <t>ij</t>
+  </si>
+  <si>
+    <t>lj</t>
+  </si>
+  <si>
+    <t>éó</t>
+  </si>
+  <si>
+    <t>dʒ</t>
+  </si>
+  <si>
+    <t>ʃ (šhá)</t>
+  </si>
+  <si>
+    <t>ʎ (ljá)</t>
+  </si>
+  <si>
+    <t>ɕ (šá)</t>
+  </si>
+  <si>
+    <t>t͡ɕ (čá)</t>
+  </si>
+  <si>
+    <t>tʃ (čhá)</t>
+  </si>
+  <si>
+    <t>ɲ (njá)</t>
+  </si>
+  <si>
+    <t>ʀ (ŕa)</t>
+  </si>
+  <si>
+    <t>r (ra)</t>
+  </si>
+  <si>
+    <t>ʑ</t>
+  </si>
+  <si>
+    <t>Notes: Negative sentences start with "Pronoun + né + verb". Questions are made with "Ták + Pronoun + verb". (for progressive tense: "to be + Pronoun + verb) (for future simple: -)</t>
+  </si>
+  <si>
+    <t>χ (cha)</t>
+  </si>
+  <si>
+    <t>x (há)</t>
+  </si>
+  <si>
+    <t>* (not a sound)</t>
+  </si>
+  <si>
+    <t>Šhálská Láňgyska Plána</t>
+  </si>
+  <si>
+    <t>Alphabet with the IPA</t>
+  </si>
+  <si>
+    <t>Pŕezéntka Postna:  (Present Tense)</t>
+  </si>
+  <si>
+    <t>Pŕezéntka Ňowna:  (Progreessive Tense)</t>
+  </si>
+  <si>
+    <t>Pŕezéntka Pástna:  (Past Tense)</t>
+  </si>
+  <si>
+    <t>Pŕezéntka Futu̇ra:  (Future Tense)</t>
+  </si>
+  <si>
+    <t>noščŕu, wašhŕu, léšhtŕu</t>
+  </si>
+  <si>
+    <t>noščŕa, wašhŕa, léšhta</t>
+  </si>
+  <si>
+    <t>noščŕe, wášhŕe, léšhtŕe</t>
+  </si>
+  <si>
+    <t>noščávŕa, wašhávŕa, léšhtávŕa</t>
+  </si>
+  <si>
+    <t>noščávŕu, wášhávŕu, lešhtávŕu</t>
+  </si>
+  <si>
+    <t>yo (rus. Ë)</t>
+  </si>
+  <si>
+    <t>* - "rj" makes a "rý" or a "ryá" sound. It's used in some words as: lotérja, intérja. If you do know the pronounciation of this letter, please contact me.</t>
+  </si>
+  <si>
+    <t>t̪͡s̪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +392,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +487,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -534,17 +786,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -557,6 +1057,227 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -575,10 +1296,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,109 +1311,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,340 +1608,724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="53"/>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD8" s="47"/>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="81"/>
+      <c r="X12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="86"/>
+      <c r="X13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="35" t="s">
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="39" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="77"/>
+      <c r="S14" s="82"/>
+      <c r="X14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="60"/>
+      <c r="S15" s="61"/>
+      <c r="X15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
+      <c r="X16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="38"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34" t="s">
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="44"/>
-    </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="s">
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
+      <c r="X17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="59"/>
+      <c r="S18" s="108"/>
+      <c r="X18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="89"/>
+      <c r="X19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC19" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="37"/>
+    </row>
+    <row r="20" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="92"/>
+      <c r="X20" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="37"/>
+    </row>
+    <row r="21" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="37"/>
+    </row>
+    <row r="22" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="41"/>
+    </row>
+    <row r="23" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="41"/>
+    </row>
+    <row r="24" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="AA24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="41"/>
+    </row>
+    <row r="25" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="AA25" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="41"/>
+    </row>
+    <row r="26" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="3:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50" t="s">
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="AA26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="41"/>
+    </row>
+    <row r="27" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51" t="s">
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
+      <c r="AA27" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="43"/>
+    </row>
+    <row r="28" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="3:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-    </row>
-    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="AA28" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AA29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB29" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AA30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AA31" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB31" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB32" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
+  <mergeCells count="51">
+    <mergeCell ref="C19:S20"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="A1:C1"/>
@@ -1327,25 +2339,26 @@
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="C13:S13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="K15:M15"/>
+    <mergeCell ref="X7:AD7"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="AC19:AD27"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AC8:AD8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -8,31 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4BE357-1E6D-4362-9BBC-A6225EF93309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D2931-E7C8-4C36-9578-A0E0150560A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
   <si>
     <t>Verbs:</t>
   </si>
   <si>
-    <t>Já (I)</t>
-  </si>
-  <si>
     <t>Ju (You)</t>
   </si>
   <si>
@@ -45,57 +53,9 @@
     <t>Tu (They)</t>
   </si>
   <si>
-    <t>nošča, wašha, léšhta</t>
-  </si>
-  <si>
-    <t>nošču, wašhu, léšhtu</t>
-  </si>
-  <si>
     <t>Tenses:</t>
   </si>
   <si>
-    <t>Example words: nošče (to ear), wášhe (to wash), léšhte (to fly)</t>
-  </si>
-  <si>
-    <t>nošče, wášhe, léšhte</t>
-  </si>
-  <si>
-    <t>noščava, wašhava, léšhtava</t>
-  </si>
-  <si>
-    <t>noščáva, wašháva, léšhtáva</t>
-  </si>
-  <si>
-    <t>noščávu, wášhávu, lešhtávu</t>
-  </si>
-  <si>
-    <t>noščňa, wašhňa, léšhtňa</t>
-  </si>
-  <si>
-    <t>noščňu, wašhňu, léšhtňu</t>
-  </si>
-  <si>
-    <t>noščňe, wášhňe, léšhtňe</t>
-  </si>
-  <si>
-    <t>noščávňa, wašhávňa, léšhtávňa</t>
-  </si>
-  <si>
-    <t>noščávňu, wášhávňu, lešhtávňu</t>
-  </si>
-  <si>
-    <t>noščva, wašhva, léšhtva</t>
-  </si>
-  <si>
-    <t>noščvu, wašhvu, léšhtvu</t>
-  </si>
-  <si>
-    <t>noščve, wášhve, léšhtve</t>
-  </si>
-  <si>
-    <t>noščavu, wášhavu, lešhtavu</t>
-  </si>
-  <si>
     <t>Example words: bild (easy), gróžčin (happy)</t>
   </si>
   <si>
@@ -177,12 +137,6 @@
     <t>ɔ</t>
   </si>
   <si>
-    <t>IPA short</t>
-  </si>
-  <si>
-    <t>IPA long</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -312,9 +266,6 @@
     <t>ʑ</t>
   </si>
   <si>
-    <t>Notes: Negative sentences start with "Pronoun + né + verb". Questions are made with "Ták + Pronoun + verb". (for progressive tense: "to be + Pronoun + verb) (for future simple: -)</t>
-  </si>
-  <si>
     <t>χ (cha)</t>
   </si>
   <si>
@@ -333,44 +284,158 @@
     <t>Pŕezéntka Postna:  (Present Tense)</t>
   </si>
   <si>
-    <t>Pŕezéntka Ňowna:  (Progreessive Tense)</t>
-  </si>
-  <si>
     <t>Pŕezéntka Pástna:  (Past Tense)</t>
   </si>
   <si>
     <t>Pŕezéntka Futu̇ra:  (Future Tense)</t>
   </si>
   <si>
-    <t>noščŕu, wašhŕu, léšhtŕu</t>
-  </si>
-  <si>
-    <t>noščŕa, wašhŕa, léšhta</t>
-  </si>
-  <si>
-    <t>noščŕe, wášhŕe, léšhtŕe</t>
-  </si>
-  <si>
-    <t>noščávŕa, wašhávŕa, léšhtávŕa</t>
-  </si>
-  <si>
-    <t>noščávŕu, wášhávŕu, lešhtávŕu</t>
-  </si>
-  <si>
     <t>yo (rus. Ë)</t>
   </si>
   <si>
-    <t>* - "rj" makes a "rý" or a "ryá" sound. It's used in some words as: lotérja, intérja. If you do know the pronounciation of this letter, please contact me.</t>
-  </si>
-  <si>
     <t>t̪͡s̪</t>
+  </si>
+  <si>
+    <t>* - "rj" makes a "rý" or a "ryá" sound. It's used in some words as: lotérja, intérja. If you do know the IPA letter of "rj", please contact me.</t>
+  </si>
+  <si>
+    <t>Conditional Sentences:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0th type - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st type - </t>
+  </si>
+  <si>
+    <t>2nd type -</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ja (I)</t>
+  </si>
+  <si>
+    <t>Pŕezéntka Ňówna:  (Progreessive Tense)</t>
+  </si>
+  <si>
+    <t>Notes: Sometimes interrogative sentences don't use pronouns, (Ták žádru? instead of Ták ju žádru?) (Do you play?) making them interchangeable.</t>
+  </si>
+  <si>
+    <t>nóščávňa, wašhávňa, léšhtávňa</t>
+  </si>
+  <si>
+    <t>nóščňe, wášhňe, léšhtňe</t>
+  </si>
+  <si>
+    <t>nóščňu, wašhňu, léšhtňu</t>
+  </si>
+  <si>
+    <t>nóščňa, wašhňa, léšhtňa</t>
+  </si>
+  <si>
+    <t>nóšča, wašha, léšhta</t>
+  </si>
+  <si>
+    <t>Example words: nóšče (to ear), wášhe (to wash), léšhte (to fly)</t>
+  </si>
+  <si>
+    <t>nóšču, wašhu, léšhtu</t>
+  </si>
+  <si>
+    <t>nóšče, wášhe, léšhte</t>
+  </si>
+  <si>
+    <t>nóščava, wašhava, léšhtava</t>
+  </si>
+  <si>
+    <t>nóščavu, wášhavu, lešhtavu</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu (nóšče)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + (nénóšče)</t>
+  </si>
+  <si>
+    <t>Ták + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu? (Ták nóšče?)</t>
+  </si>
+  <si>
+    <t>nóščávňu, wášhávňu, lešhtávňu</t>
+  </si>
+  <si>
+    <t>nóščva, wašhva, léšhtva</t>
+  </si>
+  <si>
+    <t>nóščvu, wašhvu, léšhtvu</t>
+  </si>
+  <si>
+    <t>nóščve, wášhve, léšhtve</t>
+  </si>
+  <si>
+    <t>nóščáva, wašháva, léšhtáva</t>
+  </si>
+  <si>
+    <t>nóščávu, wášhávu, lešhtávu</t>
+  </si>
+  <si>
+    <t>nóščŕa, wašhŕa, léšhta</t>
+  </si>
+  <si>
+    <t>nóščŕu, wašhŕu, léšhtŕu</t>
+  </si>
+  <si>
+    <t>nóščŕe, wášhŕe, léšhtŕe</t>
+  </si>
+  <si>
+    <t>nóščávŕa, wašhávŕa, léšhtávŕa</t>
+  </si>
+  <si>
+    <t>nóščávŕu, wášhávŕu, lešhtávŕu</t>
+  </si>
+  <si>
+    <t>nj (or ɲ if -ňa is used</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -ň(e) (nénóščňe)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -ň(e) (nóščňe)</t>
+  </si>
+  <si>
+    <t>Tá / Jásma / Jést + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -ň(e) + ? (Jést nóščňe?)</t>
+  </si>
+  <si>
+    <t>Ták + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) + ? (Ták nóščve?)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -v(e) (nénóščve)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) (nóščve)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -ŕ(e) (nóščŕe)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -ŕ(e) (nénóščŕe)</t>
+  </si>
+  <si>
+    <t>Wu̇j + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) + ? (Wu̇j nóščŕe?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +474,34 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,12 +588,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -916,19 +1009,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -952,43 +1032,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1035,6 +1078,123 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1043,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1060,7 +1220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1073,9 +1232,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,26 +1241,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1110,44 +1258,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1158,69 +1295,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,9 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,24 +1331,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1296,12 +1352,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,6 +1372,254 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,36 +1906,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="A1" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
+      <c r="A2" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1647,689 +1945,933 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X7" s="51" t="s">
+      <c r="V7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="35"/>
+      <c r="X8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="35"/>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="V12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="V13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="46"/>
+      <c r="S14" s="50"/>
+      <c r="V14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="77"/>
+      <c r="S15" s="78"/>
+      <c r="V15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
+      <c r="V16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="83"/>
+      <c r="V17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="105"/>
+      <c r="V18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="53"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X8" s="48" t="s">
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="111"/>
+      <c r="S19" s="112"/>
+      <c r="V19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD8" s="47"/>
-    </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="87"/>
+      <c r="AE19" s="29"/>
+    </row>
+    <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="100"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="108"/>
+      <c r="V20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="33"/>
+      <c r="X20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
+      <c r="AE20" s="29"/>
+    </row>
+    <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="100"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="95"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
+      <c r="AE21" s="29"/>
+    </row>
+    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="98"/>
+      <c r="X22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+    </row>
+    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="113"/>
+      <c r="E23" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="129"/>
+      <c r="S23" s="130"/>
+      <c r="X23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
+    </row>
+    <row r="24" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="125"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="117"/>
+      <c r="X24" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
+    </row>
+    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="120"/>
+      <c r="X25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+    </row>
+    <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="123"/>
+      <c r="X26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
+    </row>
+    <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="141"/>
+      <c r="E27" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="39"/>
+      <c r="S27" s="68"/>
+      <c r="X27" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="Y27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
+    </row>
+    <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="133"/>
+      <c r="X28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="24" t="s">
+      <c r="Y28" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="142"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="136"/>
+      <c r="X29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="Y29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA11" s="25" t="s">
+    </row>
+    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="139"/>
+      <c r="X30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AB11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD11" s="10" t="s">
+      <c r="Y30" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="150"/>
+      <c r="X31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="147"/>
+      <c r="X32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="81"/>
-      <c r="X12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="86"/>
-      <c r="X13" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA13" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC13" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD13" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="77"/>
-      <c r="S14" s="82"/>
-      <c r="X14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD14" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="60"/>
-      <c r="S15" s="61"/>
-      <c r="X15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
-      <c r="X16" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC16" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" s="69"/>
-      <c r="S17" s="70"/>
-      <c r="X17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC17" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="R18" s="59"/>
-      <c r="S18" s="108"/>
-      <c r="X18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA18" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD18" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="89"/>
-      <c r="X19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC19" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="37"/>
-    </row>
-    <row r="20" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="92"/>
-      <c r="X20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="37"/>
-    </row>
-    <row r="21" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="37"/>
-    </row>
-    <row r="22" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AA22" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="41"/>
-    </row>
-    <row r="23" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="41"/>
-    </row>
-    <row r="24" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
-      <c r="AA24" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="41"/>
-    </row>
-    <row r="25" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
-      <c r="AA25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-    </row>
-    <row r="26" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
-      <c r="AA26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="41"/>
-    </row>
-    <row r="27" spans="3:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="99"/>
-      <c r="AA27" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="43"/>
-    </row>
-    <row r="28" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="AA28" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB28" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="AA29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB29" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="AA30" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB30" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="AA31" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB31" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA32" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB32" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C19:S20"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
+  <mergeCells count="57">
+    <mergeCell ref="C31:S31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="F28:S28"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E15:G15"/>
@@ -2340,25 +2882,37 @@
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="C13:S13"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="F24:S24"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="AC19:AD27"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z19:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D2931-E7C8-4C36-9578-A0E0150560A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20487A4C-0509-4E39-A777-85CFC80D991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t>Verbs:</t>
   </si>
@@ -429,6 +429,75 @@
   </si>
   <si>
     <t>Wu̇j + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) + ? (Wu̇j nóščŕe?)</t>
+  </si>
+  <si>
+    <t>Singular</t>
+  </si>
+  <si>
+    <t>Noun Cases</t>
+  </si>
+  <si>
+    <t>Example words: rýbe (fish), mŕke (carrot), pisméňke (word)</t>
+  </si>
+  <si>
+    <t>Nominative: Rýbe, mŕke, pisméňke</t>
+  </si>
+  <si>
+    <t>Genitive: Rýbes, mŕkes, pisméňkes</t>
+  </si>
+  <si>
+    <t>Dative: Rýbne, mŕkne, pisméňkne</t>
+  </si>
+  <si>
+    <t>Accusative: Rýbów, mŕków, pisméňków</t>
+  </si>
+  <si>
+    <t>Vocative: Rýbe! Mŕke! Pisméňke!</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Accusative: It marks the direct object of a transitive verb.</t>
+  </si>
+  <si>
+    <t>Genitive: It's used when talking about possession: something that belongs to someone.</t>
+  </si>
+  <si>
+    <t>Locative: It indicates a place or a direction</t>
+  </si>
+  <si>
+    <t>Vocative: It address a reader or listener directly.</t>
+  </si>
+  <si>
+    <t>Nominative: It shows the normal form of the verb.</t>
+  </si>
+  <si>
+    <t>Dative: It shows the object of an action (the thing the verb acts on).</t>
+  </si>
+  <si>
+    <t>Plural</t>
+  </si>
+  <si>
+    <t>Nominative: Rýbes, mŕkes, pisméňkes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genitive: </t>
+  </si>
+  <si>
+    <t>Dative: Rýbnjes, mŕknjes, pisménknjés</t>
+  </si>
+  <si>
+    <t>Accusative: Rýbównes, mŕkównes, pisméňków</t>
+  </si>
+  <si>
+    <t>Locative: Rýbčyne, mŕkčyne, pisméňkčyne</t>
+  </si>
+  <si>
+    <t>Vocative: Rýbes! Mŕkes! Pisméňkes!</t>
+  </si>
+  <si>
+    <t>Locative: Rýbčyňýe, mŕkčynýne, pisméňkčynýne</t>
   </si>
 </sst>
 </file>
@@ -1262,318 +1331,243 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1581,15 +1575,30 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1608,18 +1617,80 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1906,32 +1977,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:S31"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1945,28 +2016,28 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="40" t="s">
+      <c r="V7" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="99"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="W8" s="35"/>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="143"/>
+      <c r="X8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" s="35"/>
+      <c r="AA8" s="143"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
@@ -2030,25 +2101,25 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="82"/>
       <c r="V12" s="19" t="s">
         <v>19</v>
       </c>
@@ -2069,25 +2140,25 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="87"/>
       <c r="V13" s="25" t="s">
         <v>20</v>
       </c>
@@ -2108,35 +2179,35 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="129"/>
+      <c r="E14" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46" t="s">
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46" t="s">
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46" t="s">
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="50"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="83"/>
       <c r="V14" s="19" t="s">
         <v>21</v>
       </c>
@@ -2157,35 +2228,35 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="76" t="s">
+      <c r="D15" s="90"/>
+      <c r="E15" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77" t="s">
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77" t="s">
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77" t="s">
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="77"/>
-      <c r="S15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="131"/>
       <c r="V15" s="19" t="s">
         <v>23</v>
       </c>
@@ -2206,27 +2277,27 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="79" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="85"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="105"/>
       <c r="V16" s="25" t="s">
         <v>24</v>
       </c>
@@ -2247,27 +2318,27 @@
       </c>
     </row>
     <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="83"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="107"/>
       <c r="V17" s="19" t="s">
         <v>25</v>
       </c>
@@ -2288,27 +2359,27 @@
       </c>
     </row>
     <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="103" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="105"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="109"/>
       <c r="V18" s="25" t="s">
         <v>26</v>
       </c>
@@ -2329,39 +2400,39 @@
       </c>
     </row>
     <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110" t="s">
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110" t="s">
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="111" t="s">
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111" t="s">
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="R19" s="111"/>
-      <c r="S19" s="112"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="56"/>
       <c r="V19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="32" t="s">
+      <c r="W19" s="140" t="s">
         <v>30</v>
       </c>
       <c r="X19" s="21" t="s">
@@ -2370,70 +2441,70 @@
       <c r="Y19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z19" s="86" t="s">
+      <c r="Z19" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="AA19" s="87"/>
+      <c r="AA19" s="145"/>
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="100"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="106" t="s">
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="107" t="s">
+      <c r="F20" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="108"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="96"/>
       <c r="V20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="33"/>
+      <c r="W20" s="141"/>
       <c r="X20" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="147"/>
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="100"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="93" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="95"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="101"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="21" t="s">
@@ -2442,234 +2513,234 @@
       <c r="Y21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="Z21" s="146"/>
+      <c r="AA21" s="147"/>
       <c r="AE21" s="29"/>
     </row>
     <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="96" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="98"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="103"/>
       <c r="X22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Y22" s="92" t="s">
+      <c r="Y22" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="Z22" s="146"/>
+      <c r="AA22" s="147"/>
     </row>
     <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="128" t="s">
+      <c r="D23" s="115"/>
+      <c r="E23" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129" t="s">
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129" t="s">
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129" t="s">
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129" t="s">
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="R23" s="129"/>
-      <c r="S23" s="130"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="135"/>
       <c r="X23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="147"/>
     </row>
     <row r="24" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="125"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="117"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="127"/>
       <c r="X24" s="21" t="s">
         <v>47</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="Z24" s="146"/>
+      <c r="AA24" s="147"/>
     </row>
     <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="125"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="118" t="s">
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="119" t="s">
+      <c r="F25" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="120"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="136"/>
+      <c r="S25" s="137"/>
       <c r="X25" s="27" t="s">
         <v>48</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
+      <c r="Z25" s="146"/>
+      <c r="AA25" s="147"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121" t="s">
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="123"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="139"/>
       <c r="X26" s="21" t="s">
         <v>49</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="147"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="141"/>
-      <c r="E27" s="38" t="s">
+      <c r="D27" s="121"/>
+      <c r="E27" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39" t="s">
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39" t="s">
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39" t="s">
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="68"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="65"/>
       <c r="X27" s="27" t="s">
         <v>50</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="149"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="131" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="132" t="s">
+      <c r="F28" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="133"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="73"/>
       <c r="X28" s="21" t="s">
         <v>51</v>
       </c>
@@ -2678,27 +2749,27 @@
       </c>
     </row>
     <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="142"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="134" t="s">
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="135" t="s">
+      <c r="F29" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="136"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="111"/>
       <c r="X29" s="21" t="s">
         <v>52</v>
       </c>
@@ -2707,27 +2778,27 @@
       </c>
     </row>
     <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="137" t="s">
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="138" t="s">
+      <c r="F30" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="138"/>
-      <c r="P30" s="138"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="139"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="113"/>
       <c r="X30" s="21" t="s">
         <v>53</v>
       </c>
@@ -2736,25 +2807,25 @@
       </c>
     </row>
     <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="150"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="48"/>
       <c r="X31" s="21" t="s">
         <v>54</v>
       </c>
@@ -2763,24 +2834,23 @@
       </c>
     </row>
     <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="147"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
       <c r="X32" s="28" t="s">
         <v>55</v>
       </c>
@@ -2790,40 +2860,40 @@
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -2854,8 +2924,310 @@
         <v>90</v>
       </c>
     </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C52" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="150"/>
+      <c r="L53" s="150"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" s="150"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
+      <c r="L54" s="150"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C55" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
+      <c r="K55" s="150"/>
+      <c r="L55" s="150"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
+      <c r="L56" s="150"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="150"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" s="150"/>
+      <c r="J58" s="150"/>
+      <c r="K58" s="150"/>
+      <c r="L58" s="150"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C59" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" s="150"/>
+      <c r="J59" s="150"/>
+      <c r="K59" s="150"/>
+      <c r="L59" s="150"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="150"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C61" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="150"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="150"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="150" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="150"/>
+      <c r="I62" s="150"/>
+      <c r="J62" s="150"/>
+      <c r="K62" s="150"/>
+      <c r="L62" s="150"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C63" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="150"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C64" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="150"/>
+      <c r="E64" s="150"/>
+      <c r="F64" s="150"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="150"/>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C65" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="150"/>
+      <c r="E65" s="150"/>
+      <c r="F65" s="150"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="150"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="150"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C66" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="150"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="150"/>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C67" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="150"/>
+      <c r="K67" s="150"/>
+      <c r="L67" s="150"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="80">
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z19:AA27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C31:S31"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
@@ -2871,48 +3243,7 @@
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="C19:D22"/>
     <mergeCell ref="F28:S28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C13:S13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C15:D18"/>
     <mergeCell ref="F20:S20"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="F21:S21"/>
-    <mergeCell ref="F22:S22"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="F24:S24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z19:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20487A4C-0509-4E39-A777-85CFC80D991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2449EAA-4893-4B7F-8352-911BF97F2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t>Verbs:</t>
   </si>
@@ -293,9 +293,6 @@
     <t>yo (rus. Ë)</t>
   </si>
   <si>
-    <t>t̪͡s̪</t>
-  </si>
-  <si>
     <t>* - "rj" makes a "rý" or a "ryá" sound. It's used in some words as: lotérja, intérja. If you do know the IPA letter of "rj", please contact me.</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>nóšča, wašha, léšhta</t>
   </si>
   <si>
-    <t>Example words: nóšče (to ear), wášhe (to wash), léšhte (to fly)</t>
-  </si>
-  <si>
     <t>nóšču, wašhu, léšhtu</t>
   </si>
   <si>
@@ -498,6 +492,18 @@
   </si>
   <si>
     <t>Locative: Rýbčyňýe, mŕkčynýne, pisméňkčynýne</t>
+  </si>
+  <si>
+    <t>t̪͡s̪ / k</t>
+  </si>
+  <si>
+    <t>Example words: nóšče (to eat), wášhe (to wash), léšhte (to fly)</t>
+  </si>
+  <si>
+    <t>Nominative: Nóšče, wášhe, léšhte</t>
+  </si>
+  <si>
+    <t>Noun Cases (for adjectives)</t>
   </si>
 </sst>
 </file>
@@ -1377,6 +1383,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1410,9 +1647,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,9 +1665,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1461,236 +1692,11 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,30 +1985,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:L67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52:V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2016,28 +2022,28 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="97" t="s">
+      <c r="V7" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="76"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="142" t="s">
+      <c r="V8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="W8" s="143"/>
-      <c r="X8" s="142" t="s">
+      <c r="W8" s="94"/>
+      <c r="X8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="142" t="s">
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" s="143"/>
+      <c r="AA8" s="94"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
@@ -2091,7 +2097,7 @@
         <v>34</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="Z11" s="23" t="s">
         <v>61</v>
@@ -2101,25 +2107,25 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="82"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
       <c r="V12" s="19" t="s">
         <v>19</v>
       </c>
@@ -2140,25 +2146,25 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="87"/>
+      <c r="C13" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="113"/>
       <c r="V13" s="25" t="s">
         <v>20</v>
       </c>
@@ -2179,35 +2185,35 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77" t="s">
+      <c r="D14" s="122"/>
+      <c r="E14" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77" t="s">
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77" t="s">
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77" t="s">
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="77"/>
-      <c r="S14" s="83"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="109"/>
       <c r="V14" s="19" t="s">
         <v>21</v>
       </c>
@@ -2228,35 +2234,35 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="78" t="s">
+      <c r="D15" s="116"/>
+      <c r="E15" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79" t="s">
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79" t="s">
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="R15" s="79"/>
-      <c r="S15" s="131"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="88"/>
       <c r="V15" s="19" t="s">
         <v>23</v>
       </c>
@@ -2277,27 +2283,27 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="105"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="82"/>
       <c r="V16" s="25" t="s">
         <v>24</v>
       </c>
@@ -2318,27 +2324,27 @@
       </c>
     </row>
     <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
       <c r="V17" s="19" t="s">
         <v>25</v>
       </c>
@@ -2359,27 +2365,27 @@
       </c>
     </row>
     <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="109"/>
+        <v>92</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="86"/>
       <c r="V18" s="25" t="s">
         <v>26</v>
       </c>
@@ -2400,39 +2406,39 @@
       </c>
     </row>
     <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="132" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57" t="s">
+      <c r="C19" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57" t="s">
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="55" t="s">
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="R19" s="55"/>
-      <c r="S19" s="56"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="132"/>
+      <c r="S19" s="133"/>
       <c r="V19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="140" t="s">
+      <c r="W19" s="91" t="s">
         <v>30</v>
       </c>
       <c r="X19" s="21" t="s">
@@ -2441,70 +2447,70 @@
       <c r="Y19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z19" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA19" s="145"/>
+      <c r="Z19" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA19" s="96"/>
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
+        <v>90</v>
+      </c>
+      <c r="F20" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="150"/>
       <c r="V20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="141"/>
+      <c r="W20" s="92"/>
       <c r="X20" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="146"/>
-      <c r="AA20" s="147"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="98"/>
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="101"/>
+        <v>91</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="78"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="21" t="s">
@@ -2513,234 +2519,234 @@
       <c r="Y21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="146"/>
-      <c r="AA21" s="147"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="98"/>
       <c r="AE21" s="29"/>
     </row>
     <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="103"/>
+        <v>92</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80"/>
       <c r="X22" s="27" t="s">
         <v>45</v>
       </c>
       <c r="Y22" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z22" s="146"/>
-      <c r="AA22" s="147"/>
+        <v>119</v>
+      </c>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="98"/>
     </row>
     <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="133" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134" t="s">
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134" t="s">
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="R23" s="134"/>
-      <c r="S23" s="135"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="69"/>
       <c r="X23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="146"/>
-      <c r="AA23" s="147"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="98"/>
     </row>
     <row r="24" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="126" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="127"/>
+        <v>90</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="64"/>
       <c r="X24" s="21" t="s">
         <v>47</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="146"/>
-      <c r="AA24" s="147"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="98"/>
     </row>
     <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="137"/>
+        <v>91</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="71"/>
       <c r="X25" s="27" t="s">
         <v>48</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z25" s="146"/>
-      <c r="AA25" s="147"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="98"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="118"/>
-      <c r="D26" s="119"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="139"/>
+        <v>92</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="73"/>
       <c r="X26" s="21" t="s">
         <v>49</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="147"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="98"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="130" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64" t="s">
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64" t="s">
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="R27" s="64"/>
-      <c r="S27" s="65"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="140"/>
       <c r="X27" s="27" t="s">
         <v>50</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="149"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="100"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="F28" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="148"/>
       <c r="X28" s="21" t="s">
         <v>51</v>
       </c>
@@ -2749,27 +2755,27 @@
       </c>
     </row>
     <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="111"/>
+        <v>91</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="48"/>
       <c r="X29" s="21" t="s">
         <v>52</v>
       </c>
@@ -2778,27 +2784,27 @@
       </c>
     </row>
     <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="113"/>
+        <v>92</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="50"/>
       <c r="X30" s="21" t="s">
         <v>53</v>
       </c>
@@ -2807,25 +2813,25 @@
       </c>
     </row>
     <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
+      <c r="C31" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="125"/>
       <c r="X31" s="21" t="s">
         <v>54</v>
       </c>
@@ -2860,40 +2866,40 @@
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="139"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="136"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="128"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="131"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -2906,328 +2912,493 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="150" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C52" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="150"/>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="150" t="s">
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="150" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="150"/>
-      <c r="E54" s="150"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150" t="s">
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="150"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="150" t="s">
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="150"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150" t="s">
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="150"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="150" t="s">
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C58" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150" t="s">
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="150" t="s">
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C59" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C60" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="150" t="s">
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C61" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="150"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150" t="s">
-        <v>150</v>
-      </c>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="150"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="150" t="s">
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C62" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C64" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C65" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="150"/>
-      <c r="E60" s="150"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" s="150"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="150"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="150"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="150" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="150"/>
-      <c r="E62" s="150"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="150"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C63" s="150" t="s">
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C67" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="150"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="150"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C64" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150"/>
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="150"/>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C65" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C66" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="150"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C67" s="150" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="150"/>
-      <c r="E67" s="150"/>
-      <c r="F67" s="150"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
-      <c r="J67" s="150"/>
-      <c r="K67" s="150"/>
-      <c r="L67" s="150"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C53:L53"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="C67:L67"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="F24:S24"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="F21:S21"/>
-    <mergeCell ref="F22:S22"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z19:AA27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C13:S13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="103">
+    <mergeCell ref="M67:V67"/>
+    <mergeCell ref="M62:V62"/>
+    <mergeCell ref="M63:V63"/>
+    <mergeCell ref="M64:V64"/>
+    <mergeCell ref="M65:V65"/>
+    <mergeCell ref="M66:V66"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="M61:V61"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R58:V58"/>
+    <mergeCell ref="M52:V52"/>
+    <mergeCell ref="M53:V53"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R55:V55"/>
     <mergeCell ref="C31:S31"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
@@ -3244,6 +3415,70 @@
     <mergeCell ref="C19:D22"/>
     <mergeCell ref="F28:S28"/>
     <mergeCell ref="F20:S20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z19:AA27"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2449EAA-4893-4B7F-8352-911BF97F2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05184B37-FB8C-47CF-814E-4B835EC90665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>Verbs:</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Pŕezéntka Ňówna:  (Progreessive Tense)</t>
   </si>
   <si>
-    <t>Notes: Sometimes interrogative sentences don't use pronouns, (Ták žádru? instead of Ták ju žádru?) (Do you play?) making them interchangeable.</t>
-  </si>
-  <si>
     <t>nóščávňa, wašhávňa, léšhtávňa</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>nóščávŕu, wášhávŕu, lešhtávŕu</t>
   </si>
   <si>
-    <t>nj (or ɲ if -ňa is used</t>
-  </si>
-  <si>
     <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -ň(e) (nénóščňe)</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>Accusative: Rýbów, mŕków, pisméňków</t>
   </si>
   <si>
-    <t>Vocative: Rýbe! Mŕke! Pisméňke!</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -479,18 +470,12 @@
     <t xml:space="preserve">Genitive: </t>
   </si>
   <si>
-    <t>Dative: Rýbnjes, mŕknjes, pisménknjés</t>
-  </si>
-  <si>
     <t>Accusative: Rýbównes, mŕkównes, pisméňków</t>
   </si>
   <si>
     <t>Locative: Rýbčyne, mŕkčyne, pisméňkčyne</t>
   </si>
   <si>
-    <t>Vocative: Rýbes! Mŕkes! Pisméňkes!</t>
-  </si>
-  <si>
     <t>Locative: Rýbčyňýe, mŕkčynýne, pisméňkčynýne</t>
   </si>
   <si>
@@ -500,10 +485,31 @@
     <t>Example words: nóšče (to eat), wášhe (to wash), léšhte (to fly)</t>
   </si>
   <si>
-    <t>Nominative: Nóšče, wášhe, léšhte</t>
-  </si>
-  <si>
     <t>Noun Cases (for adjectives)</t>
+  </si>
+  <si>
+    <t>Example words:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominative: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dative: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accusative: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locative: </t>
+  </si>
+  <si>
+    <t>Notes: Sometimes interrogative sentences don't use pronouns. (Ták žádru? instead of Ták ju žádru?) (Do you play?) They are interchangeable.</t>
+  </si>
+  <si>
+    <t>Dative: Rýbnjes, mŕknjes, pisméňknjés</t>
+  </si>
+  <si>
+    <t>Genitive: Rýbiňi, mŕkiňi, pisméňkiň</t>
   </si>
 </sst>
 </file>
@@ -1344,9 +1350,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,6 +1389,270 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1434,270 +1701,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,32 +1987,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52:V52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2022,28 +2026,28 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="74" t="s">
+      <c r="V7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="76"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="48"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="93" t="s">
+      <c r="V8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="W8" s="94"/>
-      <c r="X8" s="93" t="s">
+      <c r="W8" s="66"/>
+      <c r="X8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="93" t="s">
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" s="94"/>
+      <c r="AA8" s="66"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
@@ -2097,7 +2101,7 @@
         <v>34</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Z11" s="23" t="s">
         <v>61</v>
@@ -2107,25 +2111,25 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
       <c r="V12" s="19" t="s">
         <v>19</v>
       </c>
@@ -2146,25 +2150,25 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="113"/>
+      <c r="C13" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
       <c r="V13" s="25" t="s">
         <v>20</v>
       </c>
@@ -2185,35 +2189,35 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="102" t="s">
+      <c r="D14" s="105"/>
+      <c r="E14" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104" t="s">
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104" t="s">
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104" t="s">
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104" t="s">
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="104"/>
-      <c r="S14" s="109"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="92"/>
       <c r="V14" s="19" t="s">
         <v>21</v>
       </c>
@@ -2234,35 +2238,35 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="99"/>
+      <c r="E15" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87" t="s">
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87" t="s">
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87" t="s">
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" s="87"/>
-      <c r="S15" s="88"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
       <c r="V15" s="19" t="s">
         <v>23</v>
       </c>
@@ -2283,27 +2287,27 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="82"/>
+      <c r="F16" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="54"/>
       <c r="V16" s="25" t="s">
         <v>24</v>
       </c>
@@ -2324,27 +2328,27 @@
       </c>
     </row>
     <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="84"/>
+      <c r="F17" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="56"/>
       <c r="V17" s="19" t="s">
         <v>25</v>
       </c>
@@ -2365,27 +2369,27 @@
       </c>
     </row>
     <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="37" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="86"/>
+      <c r="F18" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="58"/>
       <c r="V18" s="25" t="s">
         <v>26</v>
       </c>
@@ -2406,39 +2410,39 @@
       </c>
     </row>
     <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90" t="s">
+      <c r="D19" s="125"/>
+      <c r="E19" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="132" t="s">
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19" s="132"/>
-      <c r="S19" s="133"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="115"/>
+      <c r="S19" s="116"/>
       <c r="V19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="91" t="s">
+      <c r="W19" s="63" t="s">
         <v>30</v>
       </c>
       <c r="X19" s="21" t="s">
@@ -2447,70 +2451,70 @@
       <c r="Y19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z19" s="95" t="s">
+      <c r="Z19" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AA19" s="96"/>
+      <c r="AA19" s="68"/>
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="38" t="s">
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="150"/>
+      <c r="F20" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="133"/>
       <c r="V20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="92"/>
+      <c r="W20" s="64"/>
       <c r="X20" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="98"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="70"/>
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="35" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="78"/>
+      <c r="F21" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="21" t="s">
@@ -2519,234 +2523,234 @@
       <c r="Y21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="98"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="70"/>
       <c r="AE21" s="29"/>
     </row>
     <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="36" t="s">
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
+      <c r="F22" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="52"/>
       <c r="X22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Y22" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="98"/>
+      <c r="Y22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="70"/>
     </row>
     <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="67" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68" t="s">
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68" t="s">
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68" t="s">
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="R23" s="68"/>
-      <c r="S23" s="69"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="79"/>
       <c r="X23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="98"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="70"/>
     </row>
     <row r="24" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="39" t="s">
+      <c r="C24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="64"/>
+      <c r="F24" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="74"/>
       <c r="X24" s="21" t="s">
         <v>47</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="98"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="70"/>
     </row>
     <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="40" t="s">
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="71"/>
+      <c r="F25" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="81"/>
       <c r="X25" s="27" t="s">
         <v>48</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="98"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="70"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="41" t="s">
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="73"/>
+      <c r="F26" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="83"/>
       <c r="X26" s="21" t="s">
         <v>49</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="98"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="70"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="65" t="s">
+      <c r="D27" s="145"/>
+      <c r="E27" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66" t="s">
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66" t="s">
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66" t="s">
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="R27" s="66"/>
-      <c r="S27" s="140"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="123"/>
       <c r="X27" s="27" t="s">
         <v>50</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="100"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="72"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="42" t="s">
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="147" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="148"/>
+      <c r="F28" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="131"/>
       <c r="X28" s="21" t="s">
         <v>51</v>
       </c>
@@ -2755,27 +2759,27 @@
       </c>
     </row>
     <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="43" t="s">
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
+      <c r="F29" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="135"/>
       <c r="X29" s="21" t="s">
         <v>52</v>
       </c>
@@ -2784,27 +2788,27 @@
       </c>
     </row>
     <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="44" t="s">
+      <c r="C30" s="148"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="50"/>
+      <c r="F30" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="137"/>
       <c r="X30" s="21" t="s">
         <v>53</v>
       </c>
@@ -2813,25 +2817,25 @@
       </c>
     </row>
     <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="125"/>
+      <c r="C31" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="108"/>
       <c r="X31" s="21" t="s">
         <v>54</v>
       </c>
@@ -2840,23 +2844,23 @@
       </c>
     </row>
     <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
       <c r="X32" s="28" t="s">
         <v>55</v>
       </c>
@@ -2866,40 +2870,40 @@
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="137" t="s">
+      <c r="C36" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="139"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="134" t="s">
+      <c r="C37" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="136"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="128"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="131"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="114"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -2931,462 +2935,502 @@
       </c>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="46" t="s">
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46" t="s">
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C58" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C54" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C55" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46" t="s">
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C59" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46" t="s">
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="46" t="s">
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C60" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46" t="s">
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="46" t="s">
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C61" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C62" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C64" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46" t="s">
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="46" t="s">
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C65" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46" t="s">
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="46" t="s">
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46" t="s">
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I73" s="150"/>
+      <c r="J73" s="150"/>
+      <c r="K73" s="150"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="150"/>
+      <c r="O73" s="150"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I74" s="150"/>
+      <c r="J74" s="150"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="150"/>
+      <c r="M74" s="150"/>
+      <c r="N74" s="150"/>
+      <c r="O74" s="150"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I75" s="150"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="150"/>
+      <c r="L75" s="150"/>
+      <c r="M75" s="150"/>
+      <c r="N75" s="150"/>
+      <c r="O75" s="150"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I76" s="150"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="150"/>
+      <c r="L76" s="150"/>
+      <c r="M76" s="150"/>
+      <c r="N76" s="150"/>
+      <c r="O76" s="150"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I77" s="150"/>
+      <c r="J77" s="150"/>
+      <c r="K77" s="150"/>
+      <c r="L77" s="150"/>
+      <c r="M77" s="150"/>
+      <c r="N77" s="150"/>
+      <c r="O77" s="150"/>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I78" s="150"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="150"/>
+      <c r="L78" s="150"/>
+      <c r="M78" s="150"/>
+      <c r="N78" s="150"/>
+      <c r="O78" s="150"/>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I79" s="150"/>
+      <c r="J79" s="150"/>
+      <c r="K79" s="150"/>
+      <c r="L79" s="150"/>
+      <c r="M79" s="150"/>
+      <c r="N79" s="150"/>
+      <c r="O79" s="150"/>
+      <c r="P79" s="150"/>
+      <c r="Q79" s="150"/>
+      <c r="R79" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="M67:V67"/>
+  <mergeCells count="99">
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="M66:V66"/>
+    <mergeCell ref="M61:V61"/>
     <mergeCell ref="M62:V62"/>
     <mergeCell ref="M63:V63"/>
     <mergeCell ref="M64:V64"/>
     <mergeCell ref="M65:V65"/>
-    <mergeCell ref="M66:V66"/>
     <mergeCell ref="M59:Q59"/>
     <mergeCell ref="R59:V59"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="R60:V60"/>
-    <mergeCell ref="M61:V61"/>
+    <mergeCell ref="M60:V60"/>
     <mergeCell ref="M56:Q56"/>
     <mergeCell ref="R56:V56"/>
     <mergeCell ref="M57:Q57"/>
@@ -3415,6 +3459,10 @@
     <mergeCell ref="C19:D22"/>
     <mergeCell ref="F28:S28"/>
     <mergeCell ref="F20:S20"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
@@ -3443,10 +3491,6 @@
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="Z19:AA27"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="C27:D30"/>
     <mergeCell ref="F24:S24"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E23:G23"/>
@@ -3456,19 +3500,10 @@
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="F25:S25"/>
     <mergeCell ref="F26:S26"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="C67:L67"/>
     <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
     <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
     <mergeCell ref="C52:L52"/>
     <mergeCell ref="C53:L53"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C63:L63"/>
     <mergeCell ref="H54:L54"/>
     <mergeCell ref="H55:L55"/>
     <mergeCell ref="H56:L56"/>
@@ -3479,7 +3514,9 @@
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C60:L60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05184B37-FB8C-47CF-814E-4B835EC90665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415FFD25-2D14-4D87-9ADB-FF4E69AA414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>yo (rus. Ë)</t>
   </si>
   <si>
-    <t>* - "rj" makes a "rý" or a "ryá" sound. It's used in some words as: lotérja, intérja. If you do know the IPA letter of "rj", please contact me.</t>
-  </si>
-  <si>
     <t>Conditional Sentences:</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>Nominative: Rýbe, mŕke, pisméňke</t>
   </si>
   <si>
-    <t>Genitive: Rýbes, mŕkes, pisméňkes</t>
-  </si>
-  <si>
     <t>Dative: Rýbne, mŕkne, pisméňkne</t>
   </si>
   <si>
@@ -503,13 +497,19 @@
     <t xml:space="preserve">Locative: </t>
   </si>
   <si>
-    <t>Notes: Sometimes interrogative sentences don't use pronouns. (Ták žádru? instead of Ták ju žádru?) (Do you play?) They are interchangeable.</t>
-  </si>
-  <si>
     <t>Dative: Rýbnjes, mŕknjes, pisméňknjés</t>
   </si>
   <si>
     <t>Genitive: Rýbiňi, mŕkiňi, pisméňkiň</t>
+  </si>
+  <si>
+    <t>* - "rj" makes a "rý" or a "ryá" sound. It's used in some words as: lotérja, intérja.</t>
+  </si>
+  <si>
+    <t>Genitive: Rýbós, mŕkós, pisméňkós</t>
+  </si>
+  <si>
+    <t>Notes: Sometimes interrogative sentences don't use pronouns. (Ták žádŕu? instead of Ták ju žádru?) (Translated: Do you play?) They are interchangeable.</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1280,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1327,7 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1386,7 +1422,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,56 +1572,53 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1545,30 +1662,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1653,55 +1746,96 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1987,32 +2121,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE79"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:L57"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2026,34 +2160,34 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="46" t="s">
+      <c r="V7" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="48"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="77"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="65" t="s">
+      <c r="V8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="65" t="s">
+      <c r="W8" s="95"/>
+      <c r="X8" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="65" t="s">
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" s="66"/>
+      <c r="AA8" s="95"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="30" t="s">
         <v>16</v>
       </c>
       <c r="X9" s="16" t="s">
@@ -2074,16 +2208,16 @@
       <c r="V10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="30" t="s">
+      <c r="W10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="X10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Y10" s="12" t="s">
+      <c r="Y10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="Z10" s="21" t="s">
         <v>60</v>
       </c>
       <c r="AA10" s="12" t="s">
@@ -2091,19 +2225,19 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="W11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X11" s="21" t="s">
+      <c r="X11" s="20" t="s">
         <v>34</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z11" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z11" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AA11" s="9" t="s">
@@ -2111,38 +2245,38 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="119"/>
       <c r="V12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="27" t="s">
+      <c r="X12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z12" s="23" t="s">
+      <c r="Z12" s="22" t="s">
         <v>59</v>
       </c>
       <c r="AA12" s="9" t="s">
@@ -2150,38 +2284,38 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96"/>
-      <c r="V13" s="25" t="s">
+      <c r="C13" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="124"/>
+      <c r="V13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="X13" s="20" t="s">
         <v>36</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="23" t="s">
+      <c r="Z13" s="22" t="s">
         <v>62</v>
       </c>
       <c r="AA13" s="9" t="s">
@@ -2189,48 +2323,48 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87" t="s">
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87" t="s">
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87" t="s">
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="87"/>
-      <c r="S14" s="92"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="120"/>
       <c r="V14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="X14" s="20" t="s">
         <v>37</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="Z14" s="22" t="s">
         <v>63</v>
       </c>
       <c r="AA14" s="9" t="s">
@@ -2238,48 +2372,48 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="88" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59" t="s">
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59" t="s">
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59" t="s">
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="89"/>
       <c r="V15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="W15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="21" t="s">
+      <c r="X15" s="20" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="23" t="s">
+      <c r="Z15" s="22" t="s">
         <v>64</v>
       </c>
       <c r="AA15" s="9" t="s">
@@ -2287,40 +2421,40 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
-      <c r="V16" s="25" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="83"/>
+      <c r="V16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="W16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X16" s="21" t="s">
+      <c r="X16" s="20" t="s">
         <v>39</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="Z16" s="22" t="s">
         <v>56</v>
       </c>
       <c r="AA16" s="9" t="s">
@@ -2328,40 +2462,40 @@
       </c>
     </row>
     <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="56"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
       <c r="V17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="W17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="X17" s="21" t="s">
+      <c r="X17" s="20" t="s">
         <v>40</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z17" s="23" t="s">
+      <c r="Z17" s="22" t="s">
         <v>57</v>
       </c>
       <c r="AA17" s="10" t="s">
@@ -2369,40 +2503,40 @@
       </c>
     </row>
     <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
-      <c r="V18" s="25" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="87"/>
+      <c r="V18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="21" t="s">
+      <c r="X18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Z18" s="24" t="s">
+      <c r="Z18" s="23" t="s">
         <v>65</v>
       </c>
       <c r="AA18" s="11" t="s">
@@ -2410,377 +2544,378 @@
       </c>
     </row>
     <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="145"/>
+      <c r="E19" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="116"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="R19" s="135"/>
+      <c r="S19" s="136"/>
       <c r="V19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="63" t="s">
+      <c r="W19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="X19" s="21" t="s">
+      <c r="X19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z19" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19" s="68"/>
-      <c r="AE19" s="29"/>
+      <c r="Z19" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA19" s="51"/>
+      <c r="AE19" s="28"/>
     </row>
     <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="133"/>
-      <c r="V20" s="26" t="s">
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="152" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="153"/>
+      <c r="V20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="64"/>
-      <c r="X20" s="21" t="s">
+      <c r="W20" s="93"/>
+      <c r="X20" s="20" t="s">
         <v>43</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="70"/>
-      <c r="AE20" s="29"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="53"/>
+      <c r="AE20" s="28"/>
     </row>
     <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="50"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="21" t="s">
+      <c r="X21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="70"/>
-      <c r="AE21" s="29"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
+      <c r="AE21" s="28"/>
     </row>
     <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="52"/>
-      <c r="X22" s="27" t="s">
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="81"/>
+      <c r="X22" s="26" t="s">
         <v>45</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="70"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="53"/>
     </row>
     <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="77" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78" t="s">
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78" t="s">
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78" t="s">
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="R23" s="78"/>
-      <c r="S23" s="79"/>
-      <c r="X23" s="21" t="s">
+      <c r="R23" s="61"/>
+      <c r="S23" s="62"/>
+      <c r="X23" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="70"/>
-    </row>
-    <row r="24" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="74"/>
-      <c r="X24" s="21" t="s">
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="53"/>
+    </row>
+    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="57"/>
+      <c r="X24" s="20" t="s">
         <v>47</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="70"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="55"/>
     </row>
     <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="81"/>
-      <c r="X25" s="27" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="64"/>
+      <c r="X25" s="26" t="s">
         <v>48</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="70"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="48"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="83"/>
-      <c r="X26" s="21" t="s">
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="66"/>
+      <c r="X26" s="20" t="s">
         <v>49</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="70"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="48"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="144" t="s">
+      <c r="C27" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="75" t="s">
+      <c r="D27" s="107"/>
+      <c r="E27" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76" t="s">
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76" t="s">
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76" t="s">
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="R27" s="76"/>
-      <c r="S27" s="123"/>
-      <c r="X27" s="27" t="s">
+      <c r="R27" s="59"/>
+      <c r="S27" s="143"/>
+      <c r="X27" s="26" t="s">
         <v>50</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="72"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="48"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="130" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="131"/>
-      <c r="X28" s="21" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="151"/>
+      <c r="X28" s="20" t="s">
         <v>51</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="Z28" s="46"/>
     </row>
     <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="135"/>
-      <c r="X29" s="21" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="97"/>
+      <c r="X29" s="20" t="s">
         <v>52</v>
       </c>
       <c r="Y29" s="9" t="s">
@@ -2788,28 +2923,28 @@
       </c>
     </row>
     <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="148"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="137"/>
-      <c r="X30" s="21" t="s">
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="X30" s="20" t="s">
         <v>53</v>
       </c>
       <c r="Y30" s="9" t="s">
@@ -2817,26 +2952,26 @@
       </c>
     </row>
     <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="108"/>
-      <c r="X31" s="21" t="s">
+      <c r="C31" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="128"/>
+      <c r="X31" s="20" t="s">
         <v>54</v>
       </c>
       <c r="Y31" s="9" t="s">
@@ -2844,24 +2979,24 @@
       </c>
     </row>
     <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="X32" s="28" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="X32" s="27" t="s">
         <v>55</v>
       </c>
       <c r="Y32" s="11" t="s">
@@ -2870,40 +3005,40 @@
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="122"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="119"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="139"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="111"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="131"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="134"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -2916,511 +3051,441 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+    </row>
+    <row r="53" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45" t="s">
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="166" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="168"/>
+      <c r="M54" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="171"/>
+      <c r="M55" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45" t="s">
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="160" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="169" t="s">
+        <v>154</v>
+      </c>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="171"/>
+      <c r="M56" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="169" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="171"/>
+      <c r="M57" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C54" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C55" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45" t="s">
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C58" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45" t="s">
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45" t="s">
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45" t="s">
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="49"/>
+    </row>
+    <row r="59" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="45"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="45" t="s">
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="172" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C60" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="45" t="s">
+      <c r="D60" s="176"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="176"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="176"/>
+      <c r="L60" s="177"/>
+      <c r="M60" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C61" s="178" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="179"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="179"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C62" s="178" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="179"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179"/>
+      <c r="H62" s="179"/>
+      <c r="I62" s="179"/>
+      <c r="J62" s="179"/>
+      <c r="K62" s="179"/>
+      <c r="L62" s="180"/>
+      <c r="M62" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="178" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="179"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179"/>
+      <c r="H63" s="179"/>
+      <c r="I63" s="179"/>
+      <c r="J63" s="179"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="180"/>
+      <c r="M63" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C64" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="45"/>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="45"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="45" t="s">
+      <c r="D64" s="179"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="179"/>
+      <c r="H64" s="179"/>
+      <c r="I64" s="179"/>
+      <c r="J64" s="179"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C65" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+    </row>
+    <row r="66" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45" t="s">
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="183"/>
+      <c r="M66" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="45"/>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="45"/>
-      <c r="V63" s="45"/>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="45"/>
-      <c r="V64" s="45"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="45"/>
-      <c r="V65" s="45"/>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="45"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="45"/>
-      <c r="U66" s="45"/>
-      <c r="V66" s="45"/>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I73" s="150"/>
-      <c r="J73" s="150"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="150"/>
-      <c r="N73" s="150"/>
-      <c r="O73" s="150"/>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I74" s="150"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="150"/>
-      <c r="N74" s="150"/>
-      <c r="O74" s="150"/>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="150"/>
-      <c r="N75" s="150"/>
-      <c r="O75" s="150"/>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I76" s="150"/>
-      <c r="J76" s="150"/>
-      <c r="K76" s="150"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="150"/>
-      <c r="N76" s="150"/>
-      <c r="O76" s="150"/>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I77" s="150"/>
-      <c r="J77" s="150"/>
-      <c r="K77" s="150"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="150"/>
-      <c r="N77" s="150"/>
-      <c r="O77" s="150"/>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I78" s="150"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="150"/>
-      <c r="L78" s="150"/>
-      <c r="M78" s="150"/>
-      <c r="N78" s="150"/>
-      <c r="O78" s="150"/>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I79" s="150"/>
-      <c r="J79" s="150"/>
-      <c r="K79" s="150"/>
-      <c r="L79" s="150"/>
-      <c r="M79" s="150"/>
-      <c r="N79" s="150"/>
-      <c r="O79" s="150"/>
-      <c r="P79" s="150"/>
-      <c r="Q79" s="150"/>
-      <c r="R79" s="150"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:L65"/>
     <mergeCell ref="C66:L66"/>
     <mergeCell ref="M66:V66"/>
     <mergeCell ref="M61:V61"/>
@@ -3428,6 +3493,11 @@
     <mergeCell ref="M63:V63"/>
     <mergeCell ref="M64:V64"/>
     <mergeCell ref="M65:V65"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C65:L65"/>
     <mergeCell ref="M59:Q59"/>
     <mergeCell ref="R59:V59"/>
     <mergeCell ref="M60:V60"/>
@@ -3490,7 +3560,6 @@
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z19:AA27"/>
     <mergeCell ref="F24:S24"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E23:G23"/>
@@ -3500,6 +3569,8 @@
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="F25:S25"/>
     <mergeCell ref="F26:S26"/>
+    <mergeCell ref="C60:L60"/>
+    <mergeCell ref="Z19:AA24"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="H59:L59"/>
     <mergeCell ref="C52:L52"/>
@@ -3514,7 +3585,6 @@
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C60:L60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415FFD25-2D14-4D87-9ADB-FF4E69AA414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0643C9-4C4C-4932-AE98-C451F30A59BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>This project includes almost all of the rules in Shalton.</t>
   </si>
   <si>
-    <t>alphabet: a, á, b, c, č, d, e, é, f, g, h, i, j, k, l, m, n, ň, o, ó, p, r, ŕ, s, š, t, u, u̇, v, w, z, ž</t>
-  </si>
-  <si>
     <t>Vowels:</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>Notes: Sometimes interrogative sentences don't use pronouns. (Ták žádŕu? instead of Ták ju žádru?) (Translated: Do you play?) They are interchangeable.</t>
+  </si>
+  <si>
+    <t>alphabet: a, á, b, c, č, d, e, é, f, g, h, i, j, k, l, m, n, ň, o, ó, p, r, ŕ, s, š, t, u, u̇, v, w, y, ý, z, ž</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,328 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,313 +1773,55 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,69 +1834,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2123,30 +2123,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="A1" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
+      <c r="A2" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2160,822 +2160,822 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="77"/>
+      <c r="V7" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="127"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="94" t="s">
+      <c r="V8" s="142" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="143"/>
+      <c r="X8" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA8" s="95"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" s="143"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="30" t="s">
-        <v>16</v>
-      </c>
       <c r="X9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="Z9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="AE9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W10" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X10" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y10" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="110"/>
+      <c r="V12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="W12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="115"/>
+      <c r="V13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z11" s="22" t="s">
+      <c r="X13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA13" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="105"/>
+      <c r="S14" s="111"/>
+      <c r="V14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="118"/>
+      <c r="E15" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="107"/>
+      <c r="S15" s="138"/>
+      <c r="V15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="133"/>
+      <c r="V16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="119"/>
-      <c r="V12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="124"/>
-      <c r="V13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="8" t="s">
+    <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="135"/>
+      <c r="V17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="137"/>
+      <c r="V18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="R19" s="65"/>
+      <c r="S19" s="66"/>
+      <c r="V19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA19" s="158"/>
+      <c r="AE19" s="28"/>
+    </row>
+    <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="85"/>
+      <c r="V20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="115"/>
-      <c r="S14" s="120"/>
-      <c r="V14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" s="88"/>
-      <c r="S15" s="89"/>
-      <c r="V15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="32" t="s">
+      <c r="W20" s="141"/>
+      <c r="X20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="159"/>
+      <c r="AA20" s="160"/>
+      <c r="AE20" s="28"/>
+    </row>
+    <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="83"/>
-      <c r="V16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA16" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
-      <c r="V17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="X17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z17" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="87"/>
-      <c r="V18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="135" t="s">
-        <v>94</v>
-      </c>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135" t="s">
-        <v>106</v>
-      </c>
-      <c r="R19" s="135"/>
-      <c r="S19" s="136"/>
-      <c r="V19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z19" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA19" s="51"/>
-      <c r="AE19" s="28"/>
-    </row>
-    <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="152" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="153"/>
-      <c r="V20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W20" s="93"/>
-      <c r="X20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="53"/>
-      <c r="AE20" s="28"/>
-    </row>
-    <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="79"/>
+      <c r="F21" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="129"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="160"/>
+      <c r="AE21" s="28"/>
+    </row>
+    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="131"/>
+      <c r="X22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Y21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="53"/>
-      <c r="AE21" s="28"/>
-    </row>
-    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="81"/>
-      <c r="X22" s="26" t="s">
+      <c r="Y22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="160"/>
+    </row>
+    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="148"/>
+      <c r="S23" s="149"/>
+      <c r="X23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Y22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="53"/>
-    </row>
-    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="R23" s="61"/>
-      <c r="S23" s="62"/>
-      <c r="X23" s="20" t="s">
+      <c r="Y23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z23" s="159"/>
+      <c r="AA23" s="160"/>
+    </row>
+    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="145"/>
+      <c r="X24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Y23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
-    </row>
-    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="37" t="s">
+      <c r="Y24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="162"/>
+    </row>
+    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="57"/>
-      <c r="X24" s="20" t="s">
+      <c r="F25" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="151"/>
+      <c r="X25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="55"/>
-    </row>
-    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="64"/>
-      <c r="X25" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="Y25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z25" s="47"/>
       <c r="AA25" s="48"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="66"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="153"/>
       <c r="X26" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z26" s="47"/>
       <c r="AA26" s="48"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="58" t="s">
+      <c r="C27" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="97"/>
+      <c r="E27" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59" t="s">
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59" t="s">
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59" t="s">
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" s="59"/>
-      <c r="S27" s="143"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="75"/>
       <c r="X27" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z27" s="47"/>
       <c r="AA27" s="48"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="83"/>
+      <c r="X28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="46"/>
+    </row>
+    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="150" t="s">
+      <c r="F29" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="151"/>
-      <c r="X28" s="20" t="s">
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="X29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z28" s="46"/>
-    </row>
-    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="108"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="41" t="s">
+    </row>
+    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F30" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="97"/>
-      <c r="X29" s="20" t="s">
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="89"/>
+      <c r="X30" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Y30" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="99"/>
-      <c r="X30" s="20" t="s">
+    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="X31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y31" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="128"/>
-      <c r="X31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y31" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2997,48 +2997,48 @@
       <c r="R32" s="43"/>
       <c r="S32" s="43"/>
       <c r="X32" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="140" t="s">
+      <c r="C36" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="139"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="70"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="131"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="132" t="s">
+      <c r="C39" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="134"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -3051,468 +3051,497 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+    </row>
+    <row r="53" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="49" t="s">
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-    </row>
-    <row r="53" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="154" t="s">
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="179"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="174"/>
+      <c r="M54" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="49" t="s">
+      <c r="D55" s="182"/>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="183"/>
+      <c r="H55" s="175" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="176"/>
+      <c r="L55" s="177"/>
+      <c r="M55" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C54" s="157" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="166" t="s">
-        <v>139</v>
-      </c>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="168"/>
-      <c r="M54" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C55" s="160" t="s">
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="181" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="182"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="177"/>
+      <c r="M56" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="169" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="171"/>
-      <c r="M55" s="49" t="s">
+      <c r="D57" s="182"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="175" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" s="176"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="177"/>
+      <c r="M57" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49" t="s">
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="171"/>
-      <c r="M56" s="49" t="s">
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C58" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="182"/>
+      <c r="E58" s="182"/>
+      <c r="F58" s="182"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="160" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="169" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="171"/>
-      <c r="M57" s="49" t="s">
+      <c r="I58" s="176"/>
+      <c r="J58" s="176"/>
+      <c r="K58" s="176"/>
+      <c r="L58" s="177"/>
+      <c r="M58" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49" t="s">
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="160" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="161"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="161"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="169" t="s">
-        <v>142</v>
-      </c>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="171"/>
-      <c r="M58" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="49"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
     </row>
     <row r="59" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="164"/>
       <c r="E59" s="164"/>
       <c r="F59" s="164"/>
       <c r="G59" s="165"/>
-      <c r="H59" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="173"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
+      <c r="H59" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="168"/>
+      <c r="M59" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
     </row>
     <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="175" t="s">
+      <c r="C60" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C61" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C62" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C64" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="176"/>
-      <c r="E60" s="176"/>
-      <c r="F60" s="176"/>
-      <c r="G60" s="176"/>
-      <c r="H60" s="176"/>
-      <c r="I60" s="176"/>
-      <c r="J60" s="176"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="177"/>
-      <c r="M60" s="49" t="s">
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="49"/>
-      <c r="V60" s="49"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="178" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="179"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="179"/>
-      <c r="G61" s="179"/>
-      <c r="H61" s="179"/>
-      <c r="I61" s="179"/>
-      <c r="J61" s="179"/>
-      <c r="K61" s="179"/>
-      <c r="L61" s="180"/>
-      <c r="M61" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="49"/>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="178" t="s">
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C65" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="179"/>
-      <c r="E62" s="179"/>
-      <c r="F62" s="179"/>
-      <c r="G62" s="179"/>
-      <c r="H62" s="179"/>
-      <c r="I62" s="179"/>
-      <c r="J62" s="179"/>
-      <c r="K62" s="179"/>
-      <c r="L62" s="180"/>
-      <c r="M62" s="49" t="s">
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="49"/>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="179"/>
-      <c r="E63" s="179"/>
-      <c r="F63" s="179"/>
-      <c r="G63" s="179"/>
-      <c r="H63" s="179"/>
-      <c r="I63" s="179"/>
-      <c r="J63" s="179"/>
-      <c r="K63" s="179"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="179"/>
-      <c r="E64" s="179"/>
-      <c r="F64" s="179"/>
-      <c r="G64" s="179"/>
-      <c r="H64" s="179"/>
-      <c r="I64" s="179"/>
-      <c r="J64" s="179"/>
-      <c r="K64" s="179"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="178" t="s">
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+    </row>
+    <row r="66" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
-      <c r="G65" s="179"/>
-      <c r="H65" s="179"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="179"/>
-      <c r="K65" s="179"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="49" t="s">
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
-    </row>
-    <row r="66" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="181" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="183"/>
-      <c r="M66" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="M66:V66"/>
-    <mergeCell ref="M61:V61"/>
-    <mergeCell ref="M62:V62"/>
-    <mergeCell ref="M63:V63"/>
-    <mergeCell ref="M64:V64"/>
-    <mergeCell ref="M65:V65"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="R59:V59"/>
-    <mergeCell ref="M60:V60"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R58:V58"/>
-    <mergeCell ref="M52:V52"/>
-    <mergeCell ref="M53:V53"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="C60:L60"/>
+    <mergeCell ref="Z19:AA24"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="C31:S31"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
@@ -3529,62 +3558,33 @@
     <mergeCell ref="C19:D22"/>
     <mergeCell ref="F28:S28"/>
     <mergeCell ref="F20:S20"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C13:S13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="F21:S21"/>
-    <mergeCell ref="F22:S22"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="F24:S24"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="C60:L60"/>
-    <mergeCell ref="Z19:AA24"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C53:L53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="M52:V52"/>
+    <mergeCell ref="M53:V53"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="M60:V60"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R58:V58"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="M66:V66"/>
+    <mergeCell ref="M61:V61"/>
+    <mergeCell ref="M62:V62"/>
+    <mergeCell ref="M63:V63"/>
+    <mergeCell ref="M64:V64"/>
+    <mergeCell ref="M65:V65"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C65:L65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0643C9-4C4C-4932-AE98-C451F30A59BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879581D6-C0A3-4671-8AB6-06D07AC13168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="176">
   <si>
     <t>Verbs:</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ju (You)</t>
   </si>
   <si>
-    <t>Ji, Jo, Es (He, She, It)</t>
-  </si>
-  <si>
     <t>Mu (We)</t>
   </si>
   <si>
@@ -344,15 +341,6 @@
     <t>nóščavu, wášhavu, lešhtavu</t>
   </si>
   <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu (nóšče)</t>
-  </si>
-  <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + (nénóšče)</t>
-  </si>
-  <si>
-    <t>Ták + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu? (Ták nóšče?)</t>
-  </si>
-  <si>
     <t>nóščávňu, wášhávňu, lešhtávňu</t>
   </si>
   <si>
@@ -386,33 +374,6 @@
     <t>nóščávŕu, wášhávŕu, lešhtávŕu</t>
   </si>
   <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -ň(e) (nénóščňe)</t>
-  </si>
-  <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -ň(e) (nóščňe)</t>
-  </si>
-  <si>
-    <t>Tá / Jásma / Jést + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -ň(e) + ? (Jést nóščňe?)</t>
-  </si>
-  <si>
-    <t>Ták + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) + ? (Ták nóščve?)</t>
-  </si>
-  <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -v(e) (nénóščve)</t>
-  </si>
-  <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) (nóščve)</t>
-  </si>
-  <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -ŕ(e) (nóščŕe)</t>
-  </si>
-  <si>
-    <t>Ja / Ju / Ji / Jo / Es / Mu / Tu + né- + Vérbu + -ŕ(e) (nénóščŕe)</t>
-  </si>
-  <si>
-    <t>Wu̇j + Ja / Ju / Ji / Jo / Es / Mu / Tu + Vérbu + -v(e) + ? (Wu̇j nóščŕe?)</t>
-  </si>
-  <si>
     <t>Singular</t>
   </si>
   <si>
@@ -510,6 +471,99 @@
   </si>
   <si>
     <t>alphabet: a, á, b, c, č, d, e, é, f, g, h, i, j, k, l, m, n, ň, o, ó, p, r, ŕ, s, š, t, u, u̇, v, w, y, ý, z, ž</t>
+  </si>
+  <si>
+    <t>Female Verbs</t>
+  </si>
+  <si>
+    <t>Neutral Verbs</t>
+  </si>
+  <si>
+    <t>Male Verbs</t>
+  </si>
+  <si>
+    <t>Example words: sóžnja (sister), kótka (cat), špýka (matches)</t>
+  </si>
+  <si>
+    <t>Nominative: Sóžnja, kótka, špýka</t>
+  </si>
+  <si>
+    <t>Genitive: Sóžnjás, kótkás, špýkás</t>
+  </si>
+  <si>
+    <t>Dative: Rýbňe, mŕkňe, pisméňkňe</t>
+  </si>
+  <si>
+    <t>Accusative: Sóžnjówa, kótkówa, špýkówa</t>
+  </si>
+  <si>
+    <t>Dative: Sóžnjáňa, kótkňa, špýkňa</t>
+  </si>
+  <si>
+    <t>Locative: Sóžnjačyňa, kótkačyňa, špýkčyňe</t>
+  </si>
+  <si>
+    <t>Genitive: Rýbýňe, mŕkýňe, pisméňkýňe</t>
+  </si>
+  <si>
+    <t>Accusative: Rýbówes, mŕkówes, pisméňkówes</t>
+  </si>
+  <si>
+    <t>Locative: Rýbčyňýne, mŕkčyňýne, pisméňkčyňýne</t>
+  </si>
+  <si>
+    <t>Genitive: Sóžnjýňa, kótkýňa, špýkýňa</t>
+  </si>
+  <si>
+    <t>Dative: Sóžnjas, kótknjas, špýknjas</t>
+  </si>
+  <si>
+    <t>Accusative: Sóžnjówas, kótknjówas, špýknjówas</t>
+  </si>
+  <si>
+    <t>Locative: Sóžnjačyňýna, kótkačyňýna, špýkčyňýna</t>
+  </si>
+  <si>
+    <t>Explanation on every verb case:</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu + Vérbu (nóšče)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + né- + Vérbu + (nénóšče)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + Vérbu? (Ták nóšče?)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + Vérbu + -ň(e) (nóščňe)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + né- + Vérbu + -ň(e) (nénóščňe)</t>
+  </si>
+  <si>
+    <t>Tá / Jásma / Jést + Ja / Ju / On / Ona Es / Mu / Tu  + Vérbu + -ň(e) + ? (Jést nóščňe?)</t>
+  </si>
+  <si>
+    <t>On, Ona, Es (He, She, It)</t>
+  </si>
+  <si>
+    <t>Ták + Ja / Ju / On / Ona Es / Mu / Tu + Vérbu + -v(e) + ? (Ták nóščve?)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + né- + Vérbu + -v(e) (nénóščve)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + Vérbu + -v(e) (nóščve)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + Vérbu + -ŕ(e) (nóščŕe)</t>
+  </si>
+  <si>
+    <t>Ja / Ju / On / Ona Es / Mu / Tu  + né- + Vérbu + -ŕ(e) (nénóščŕe)</t>
+  </si>
+  <si>
+    <t>Wu̇j + Ja / Ju / On / Ona Es / Mu / Tu  + Vérbu + -v(e) + ? (Wu̇j nóščŕe?)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,8 +727,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1317,11 +1389,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1431,35 +1571,243 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1485,9 +1833,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,132 +1935,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1728,113 +1947,62 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,36 +2289,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE66"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="A1" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="A2" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2160,822 +2328,822 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="127"/>
+      <c r="V7" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="88"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="142" t="s">
+      <c r="V8" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" s="106"/>
+      <c r="X8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="143"/>
-      <c r="X8" s="142" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA8" s="143"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="106"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="30" t="s">
-        <v>15</v>
-      </c>
       <c r="X9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="Z9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="AE9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V10" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W10" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X10" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="114"/>
+      <c r="V12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="W12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="119"/>
+      <c r="V13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z11" s="22" t="s">
+      <c r="X13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA13" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="128"/>
+      <c r="E14" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="110"/>
+      <c r="S14" s="115"/>
+      <c r="V14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="99"/>
+      <c r="S15" s="100"/>
+      <c r="V15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="V16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="110"/>
-      <c r="V12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="X12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="115"/>
-      <c r="V13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="8" t="s">
+    <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="V17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="98"/>
+      <c r="V18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="146"/>
+      <c r="E19" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="135" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" s="135"/>
+      <c r="S19" s="136"/>
+      <c r="V19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA19" s="60"/>
+      <c r="AE19" s="28"/>
+    </row>
+    <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="153" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="154"/>
+      <c r="V20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="X13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="105"/>
-      <c r="S14" s="111"/>
-      <c r="V14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="138"/>
-      <c r="V15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="32" t="s">
+      <c r="W20" s="104"/>
+      <c r="X20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="62"/>
+      <c r="AE20" s="28"/>
+    </row>
+    <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="132" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="133"/>
-      <c r="V16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA16" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="135"/>
-      <c r="V17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="137"/>
-      <c r="V18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="R19" s="65"/>
-      <c r="S19" s="66"/>
-      <c r="V19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="140" t="s">
-        <v>29</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z19" s="157" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA19" s="158"/>
-      <c r="AE19" s="28"/>
-    </row>
-    <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="85"/>
-      <c r="V20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="141"/>
-      <c r="X20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="160"/>
-      <c r="AE20" s="28"/>
-    </row>
-    <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="129"/>
+      <c r="F21" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AE21" s="28"/>
+    </row>
+    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="92"/>
+      <c r="X22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Y21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="160"/>
-      <c r="AE21" s="28"/>
-    </row>
-    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="131"/>
-      <c r="X22" s="26" t="s">
+      <c r="Y22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="62"/>
+    </row>
+    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="160"/>
+      <c r="E23" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
+      <c r="X23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="Y22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="160"/>
-    </row>
-    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="147" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" s="148"/>
-      <c r="S23" s="149"/>
-      <c r="X23" s="20" t="s">
+      <c r="Y23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="62"/>
+    </row>
+    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="172"/>
+      <c r="X24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Y23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="160"/>
-    </row>
-    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="37" t="s">
+      <c r="Y24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="64"/>
+    </row>
+    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="161"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="145"/>
-      <c r="X24" s="20" t="s">
+      <c r="F25" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="56"/>
+      <c r="X25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Y24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="162"/>
-    </row>
-    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="151"/>
-      <c r="X25" s="26" t="s">
-        <v>47</v>
-      </c>
       <c r="Y25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="47"/>
       <c r="AA25" s="48"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
       <c r="E26" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="152" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="153"/>
+        <v>89</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="58"/>
       <c r="X26" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z26" s="47"/>
       <c r="AA26" s="48"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="146" t="s">
+      <c r="C27" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="166"/>
+      <c r="E27" s="173" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="R27" s="74"/>
-      <c r="S27" s="75"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="144"/>
       <c r="X27" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z27" s="47"/>
       <c r="AA27" s="48"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="152"/>
+      <c r="X28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z28" s="46"/>
+    </row>
+    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="83"/>
-      <c r="X28" s="20" t="s">
+      <c r="F29" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="156"/>
+      <c r="X29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Z28" s="46"/>
-    </row>
-    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="41" t="s">
+    </row>
+    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="87"/>
-      <c r="X29" s="20" t="s">
+      <c r="F30" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="158"/>
+      <c r="X30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Y30" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="89"/>
-      <c r="X30" s="20" t="s">
+    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="191" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="192"/>
+      <c r="N31" s="192"/>
+      <c r="O31" s="192"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="192"/>
+      <c r="S31" s="193"/>
+      <c r="X31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y31" s="9" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="58"/>
-      <c r="X31" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y31" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2997,52 +3165,52 @@
       <c r="R32" s="43"/>
       <c r="S32" s="43"/>
       <c r="X32" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="139"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-    </row>
-    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="59" t="s">
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="131"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="134"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3051,466 +3219,1109 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="87"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="87"/>
+      <c r="V52" s="87"/>
+      <c r="W52" s="87"/>
+      <c r="X52" s="87"/>
+      <c r="Y52" s="87"/>
+      <c r="Z52" s="87"/>
+      <c r="AA52" s="87"/>
+      <c r="AB52" s="87"/>
+      <c r="AC52" s="87"/>
+      <c r="AD52" s="87"/>
+      <c r="AE52" s="87"/>
+      <c r="AF52" s="88"/>
+    </row>
+    <row r="53" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="184"/>
+      <c r="M53" s="182" t="s">
+        <v>145</v>
+      </c>
+      <c r="N53" s="183"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="183"/>
+      <c r="Q53" s="183"/>
+      <c r="R53" s="183"/>
+      <c r="S53" s="183"/>
+      <c r="T53" s="183"/>
+      <c r="U53" s="183"/>
+      <c r="V53" s="184"/>
+      <c r="W53" s="182" t="s">
+        <v>146</v>
+      </c>
+      <c r="X53" s="183"/>
+      <c r="Y53" s="183"/>
+      <c r="Z53" s="183"/>
+      <c r="AA53" s="183"/>
+      <c r="AB53" s="183"/>
+      <c r="AC53" s="183"/>
+      <c r="AD53" s="183"/>
+      <c r="AE53" s="183"/>
+      <c r="AF53" s="184"/>
+    </row>
+    <row r="54" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
+      <c r="AE54" s="72"/>
+      <c r="AF54" s="73"/>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C55" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="X55" s="81"/>
+      <c r="Y55" s="81"/>
+      <c r="Z55" s="81"/>
+      <c r="AA55" s="82"/>
+      <c r="AB55" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC55" s="75"/>
+      <c r="AD55" s="75"/>
+      <c r="AE55" s="75"/>
+      <c r="AF55" s="76"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C56" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-    </row>
-    <row r="53" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="169" t="s">
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="79"/>
+      <c r="W56" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="X56" s="84"/>
+      <c r="Y56" s="84"/>
+      <c r="Z56" s="84"/>
+      <c r="AA56" s="85"/>
+      <c r="AB56" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC56" s="78"/>
+      <c r="AD56" s="78"/>
+      <c r="AE56" s="78"/>
+      <c r="AF56" s="79"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C57" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="X57" s="84"/>
+      <c r="Y57" s="84"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="78"/>
+      <c r="AE57" s="78"/>
+      <c r="AF57" s="79"/>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C58" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="X58" s="84"/>
+      <c r="Y58" s="84"/>
+      <c r="Z58" s="84"/>
+      <c r="AA58" s="85"/>
+      <c r="AB58" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC58" s="78"/>
+      <c r="AD58" s="78"/>
+      <c r="AE58" s="78"/>
+      <c r="AF58" s="79"/>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C59" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="79"/>
+      <c r="W59" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="X59" s="84"/>
+      <c r="Y59" s="84"/>
+      <c r="Z59" s="84"/>
+      <c r="AA59" s="85"/>
+      <c r="AB59" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="79"/>
+    </row>
+    <row r="60" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="66"/>
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC60" s="69"/>
+      <c r="AD60" s="69"/>
+      <c r="AE60" s="69"/>
+      <c r="AF60" s="70"/>
+    </row>
+    <row r="61" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="185" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="186"/>
+      <c r="I61" s="186"/>
+      <c r="J61" s="186"/>
+      <c r="K61" s="186"/>
+      <c r="L61" s="186"/>
+      <c r="M61" s="186"/>
+      <c r="N61" s="186"/>
+      <c r="O61" s="186"/>
+      <c r="P61" s="186"/>
+      <c r="Q61" s="186"/>
+      <c r="R61" s="186"/>
+      <c r="S61" s="186"/>
+      <c r="T61" s="186"/>
+      <c r="U61" s="186"/>
+      <c r="V61" s="186"/>
+      <c r="W61" s="186"/>
+      <c r="X61" s="186"/>
+      <c r="Y61" s="186"/>
+      <c r="Z61" s="186"/>
+      <c r="AA61" s="186"/>
+      <c r="AB61" s="186"/>
+      <c r="AC61" s="186"/>
+      <c r="AD61" s="186"/>
+      <c r="AE61" s="186"/>
+      <c r="AF61" s="187"/>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C62" s="188" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="189"/>
+      <c r="E62" s="189"/>
+      <c r="F62" s="189"/>
+      <c r="G62" s="189"/>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+      <c r="J62" s="189"/>
+      <c r="K62" s="189"/>
+      <c r="L62" s="189"/>
+      <c r="M62" s="189"/>
+      <c r="N62" s="189"/>
+      <c r="O62" s="189"/>
+      <c r="P62" s="189"/>
+      <c r="Q62" s="189"/>
+      <c r="R62" s="189"/>
+      <c r="S62" s="189"/>
+      <c r="T62" s="189"/>
+      <c r="U62" s="189"/>
+      <c r="V62" s="189"/>
+      <c r="W62" s="189"/>
+      <c r="X62" s="189"/>
+      <c r="Y62" s="189"/>
+      <c r="Z62" s="189"/>
+      <c r="AA62" s="189"/>
+      <c r="AB62" s="189"/>
+      <c r="AC62" s="189"/>
+      <c r="AD62" s="189"/>
+      <c r="AE62" s="189"/>
+      <c r="AF62" s="190"/>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C63" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="177"/>
+      <c r="E63" s="177"/>
+      <c r="F63" s="177"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="177"/>
+      <c r="I63" s="177"/>
+      <c r="J63" s="177"/>
+      <c r="K63" s="177"/>
+      <c r="L63" s="177"/>
+      <c r="M63" s="177"/>
+      <c r="N63" s="177"/>
+      <c r="O63" s="177"/>
+      <c r="P63" s="177"/>
+      <c r="Q63" s="177"/>
+      <c r="R63" s="177"/>
+      <c r="S63" s="177"/>
+      <c r="T63" s="177"/>
+      <c r="U63" s="177"/>
+      <c r="V63" s="177"/>
+      <c r="W63" s="177"/>
+      <c r="X63" s="177"/>
+      <c r="Y63" s="177"/>
+      <c r="Z63" s="177"/>
+      <c r="AA63" s="177"/>
+      <c r="AB63" s="177"/>
+      <c r="AC63" s="177"/>
+      <c r="AD63" s="177"/>
+      <c r="AE63" s="177"/>
+      <c r="AF63" s="178"/>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C64" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="177"/>
+      <c r="E64" s="177"/>
+      <c r="F64" s="177"/>
+      <c r="G64" s="177"/>
+      <c r="H64" s="177"/>
+      <c r="I64" s="177"/>
+      <c r="J64" s="177"/>
+      <c r="K64" s="177"/>
+      <c r="L64" s="177"/>
+      <c r="M64" s="177"/>
+      <c r="N64" s="177"/>
+      <c r="O64" s="177"/>
+      <c r="P64" s="177"/>
+      <c r="Q64" s="177"/>
+      <c r="R64" s="177"/>
+      <c r="S64" s="177"/>
+      <c r="T64" s="177"/>
+      <c r="U64" s="177"/>
+      <c r="V64" s="177"/>
+      <c r="W64" s="177"/>
+      <c r="X64" s="177"/>
+      <c r="Y64" s="177"/>
+      <c r="Z64" s="177"/>
+      <c r="AA64" s="177"/>
+      <c r="AB64" s="177"/>
+      <c r="AC64" s="177"/>
+      <c r="AD64" s="177"/>
+      <c r="AE64" s="177"/>
+      <c r="AF64" s="178"/>
+    </row>
+    <row r="65" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C65" s="176" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="177"/>
+      <c r="E65" s="177"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="177"/>
+      <c r="M65" s="177"/>
+      <c r="N65" s="177"/>
+      <c r="O65" s="177"/>
+      <c r="P65" s="177"/>
+      <c r="Q65" s="177"/>
+      <c r="R65" s="177"/>
+      <c r="S65" s="177"/>
+      <c r="T65" s="177"/>
+      <c r="U65" s="177"/>
+      <c r="V65" s="177"/>
+      <c r="W65" s="177"/>
+      <c r="X65" s="177"/>
+      <c r="Y65" s="177"/>
+      <c r="Z65" s="177"/>
+      <c r="AA65" s="177"/>
+      <c r="AB65" s="177"/>
+      <c r="AC65" s="177"/>
+      <c r="AD65" s="177"/>
+      <c r="AE65" s="177"/>
+      <c r="AF65" s="178"/>
+    </row>
+    <row r="66" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C66" s="176" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="177"/>
+      <c r="E66" s="177"/>
+      <c r="F66" s="177"/>
+      <c r="G66" s="177"/>
+      <c r="H66" s="177"/>
+      <c r="I66" s="177"/>
+      <c r="J66" s="177"/>
+      <c r="K66" s="177"/>
+      <c r="L66" s="177"/>
+      <c r="M66" s="177"/>
+      <c r="N66" s="177"/>
+      <c r="O66" s="177"/>
+      <c r="P66" s="177"/>
+      <c r="Q66" s="177"/>
+      <c r="R66" s="177"/>
+      <c r="S66" s="177"/>
+      <c r="T66" s="177"/>
+      <c r="U66" s="177"/>
+      <c r="V66" s="177"/>
+      <c r="W66" s="177"/>
+      <c r="X66" s="177"/>
+      <c r="Y66" s="177"/>
+      <c r="Z66" s="177"/>
+      <c r="AA66" s="177"/>
+      <c r="AB66" s="177"/>
+      <c r="AC66" s="177"/>
+      <c r="AD66" s="177"/>
+      <c r="AE66" s="177"/>
+      <c r="AF66" s="178"/>
+    </row>
+    <row r="67" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="179" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="180"/>
+      <c r="E67" s="180"/>
+      <c r="F67" s="180"/>
+      <c r="G67" s="180"/>
+      <c r="H67" s="180"/>
+      <c r="I67" s="180"/>
+      <c r="J67" s="180"/>
+      <c r="K67" s="180"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="180"/>
+      <c r="N67" s="180"/>
+      <c r="O67" s="180"/>
+      <c r="P67" s="180"/>
+      <c r="Q67" s="180"/>
+      <c r="R67" s="180"/>
+      <c r="S67" s="180"/>
+      <c r="T67" s="180"/>
+      <c r="U67" s="180"/>
+      <c r="V67" s="180"/>
+      <c r="W67" s="180"/>
+      <c r="X67" s="180"/>
+      <c r="Y67" s="180"/>
+      <c r="Z67" s="180"/>
+      <c r="AA67" s="180"/>
+      <c r="AB67" s="180"/>
+      <c r="AC67" s="180"/>
+      <c r="AD67" s="180"/>
+      <c r="AE67" s="180"/>
+      <c r="AF67" s="181"/>
+    </row>
+    <row r="68" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="51"/>
+      <c r="W68" s="51"/>
+      <c r="X68" s="51"/>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="51"/>
+      <c r="AA68" s="51"/>
+      <c r="AB68" s="51"/>
+      <c r="AC68" s="51"/>
+      <c r="AD68" s="51"/>
+      <c r="AE68" s="51"/>
+      <c r="AF68" s="52"/>
+    </row>
+    <row r="69" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+    </row>
+    <row r="70" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+    </row>
+    <row r="71" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="49"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+    </row>
+    <row r="72" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="49"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="49"/>
+      <c r="AC72" s="49"/>
+      <c r="AD72" s="49"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+    </row>
+    <row r="77" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C77" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="175"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="175"/>
+      <c r="G77" s="175"/>
+      <c r="H77" s="175"/>
+      <c r="I77" s="175"/>
+      <c r="J77" s="175"/>
+      <c r="K77" s="175"/>
+      <c r="L77" s="175"/>
+    </row>
+    <row r="78" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C78" s="175" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="175"/>
+      <c r="E78" s="175"/>
+      <c r="F78" s="175"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="175"/>
+      <c r="I78" s="175"/>
+      <c r="J78" s="175"/>
+      <c r="K78" s="175"/>
+      <c r="L78" s="175"/>
+    </row>
+    <row r="79" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C79" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" s="175"/>
+      <c r="J79" s="175"/>
+      <c r="K79" s="175"/>
+      <c r="L79" s="175"/>
+    </row>
+    <row r="80" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C80" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" s="175"/>
+      <c r="J80" s="175"/>
+      <c r="K80" s="175"/>
+      <c r="L80" s="175"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C81" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C54" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="179"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="172" t="s">
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="I81" s="175"/>
+      <c r="J81" s="175"/>
+      <c r="K81" s="175"/>
+      <c r="L81" s="175"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C82" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="175"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="175"/>
+      <c r="G82" s="175"/>
+      <c r="H82" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="I82" s="175"/>
+      <c r="J82" s="175"/>
+      <c r="K82" s="175"/>
+      <c r="L82" s="175"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C83" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="I83" s="175"/>
+      <c r="J83" s="175"/>
+      <c r="K83" s="175"/>
+      <c r="L83" s="175"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C84" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="I54" s="173"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="173"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52" t="s">
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C55" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="182"/>
-      <c r="E55" s="182"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="175" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="177"/>
-      <c r="M55" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="181" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="175" t="s">
-        <v>153</v>
-      </c>
-      <c r="I56" s="176"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="177"/>
-      <c r="M56" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="181" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="175" t="s">
-        <v>152</v>
-      </c>
-      <c r="I57" s="176"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="176"/>
-      <c r="L57" s="177"/>
-      <c r="M57" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="181" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="182"/>
-      <c r="E58" s="182"/>
-      <c r="F58" s="182"/>
-      <c r="G58" s="183"/>
-      <c r="H58" s="175" t="s">
-        <v>141</v>
-      </c>
-      <c r="I58" s="176"/>
-      <c r="J58" s="176"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="177"/>
-      <c r="M58" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-    </row>
-    <row r="59" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="163" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164"/>
-      <c r="F59" s="164"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59" s="167"/>
-      <c r="J59" s="167"/>
-      <c r="K59" s="167"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-    </row>
-    <row r="66" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="175"/>
+      <c r="K84" s="175"/>
+      <c r="L84" s="175"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C85" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="175"/>
+      <c r="I85" s="175"/>
+      <c r="J85" s="175"/>
+      <c r="K85" s="175"/>
+      <c r="L85" s="175"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C86" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="175"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="175"/>
+      <c r="K86" s="175"/>
+      <c r="L86" s="175"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C87" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
+      <c r="G87" s="175"/>
+      <c r="H87" s="175"/>
+      <c r="I87" s="175"/>
+      <c r="J87" s="175"/>
+      <c r="K87" s="175"/>
+      <c r="L87" s="175"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C88" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="175"/>
+      <c r="L88" s="175"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C89" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
+      <c r="G89" s="175"/>
+      <c r="H89" s="175"/>
+      <c r="I89" s="175"/>
+      <c r="J89" s="175"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="175"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C90" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="175"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C91" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="175"/>
+      <c r="I91" s="175"/>
+      <c r="J91" s="175"/>
+      <c r="K91" s="175"/>
+      <c r="L91" s="175"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="C60:L60"/>
-    <mergeCell ref="Z19:AA24"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C52:L52"/>
+  <mergeCells count="129">
+    <mergeCell ref="C52:AF52"/>
     <mergeCell ref="C53:L53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="M53:V53"/>
+    <mergeCell ref="W53:AF53"/>
+    <mergeCell ref="C61:AF61"/>
+    <mergeCell ref="C62:AF62"/>
+    <mergeCell ref="C63:AF63"/>
+    <mergeCell ref="C64:AF64"/>
+    <mergeCell ref="C65:AF65"/>
+    <mergeCell ref="M54:V54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="W54:AF54"/>
+    <mergeCell ref="W55:AA55"/>
+    <mergeCell ref="AB55:AF55"/>
+    <mergeCell ref="W56:AA56"/>
+    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="C66:AF66"/>
+    <mergeCell ref="C67:AF67"/>
+    <mergeCell ref="W59:AA59"/>
+    <mergeCell ref="AB59:AF59"/>
+    <mergeCell ref="W60:AA60"/>
+    <mergeCell ref="AB60:AF60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R58:V58"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="W57:AA57"/>
+    <mergeCell ref="AB57:AF57"/>
+    <mergeCell ref="W58:AA58"/>
+    <mergeCell ref="AB58:AF58"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="C86:L86"/>
+    <mergeCell ref="C87:L87"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C89:L89"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C77:L77"/>
+    <mergeCell ref="C78:L78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
     <mergeCell ref="F24:S24"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="C15:D18"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="V7:AA7"/>
@@ -3526,65 +4337,34 @@
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C13:S13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C31:S31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C68:AF68"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="Z19:AA24"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C31:S31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="M52:V52"/>
-    <mergeCell ref="M53:V53"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R55:V55"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="R59:V59"/>
-    <mergeCell ref="M60:V60"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R58:V58"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="M66:V66"/>
-    <mergeCell ref="M61:V61"/>
-    <mergeCell ref="M62:V62"/>
-    <mergeCell ref="M63:V63"/>
-    <mergeCell ref="M64:V64"/>
-    <mergeCell ref="M65:V65"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:L65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB469DB-EA1E-4EC2-B085-C35B9FFF34BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01171E-FED6-4F07-93F8-C9BA2FD01414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="188">
   <si>
     <t>Verbs:</t>
   </si>
@@ -110,21 +110,12 @@
     <t>u̇</t>
   </si>
   <si>
-    <t>a:</t>
-  </si>
-  <si>
-    <t>e:</t>
-  </si>
-  <si>
     <t>ý</t>
   </si>
   <si>
     <t>i:</t>
   </si>
   <si>
-    <t>u:</t>
-  </si>
-  <si>
     <t>ɔ</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Accusative: Rýbównes, mŕkównes, pisméňków</t>
   </si>
   <si>
-    <t>Locative: Rýbčyne, mŕkčyne, pisméňkčyne</t>
-  </si>
-  <si>
     <t>Locative: Rýbčyňýe, mŕkčynýne, pisméňkčynýne</t>
   </si>
   <si>
@@ -479,9 +467,6 @@
     <t>Nominative: Sóžnja, kótka, špýka</t>
   </si>
   <si>
-    <t>Genitive: Sóžnjás, kótkás, špýkás</t>
-  </si>
-  <si>
     <t>Dative: Rýbňe, mŕkňe, pisméňkňe</t>
   </si>
   <si>
@@ -491,18 +476,12 @@
     <t>Dative: Sóžnjáňa, kótkňa, špýkňa</t>
   </si>
   <si>
-    <t>Locative: Sóžnjačyňa, kótkačyňa, špýkčyňe</t>
-  </si>
-  <si>
     <t>Genitive: Rýbýňe, mŕkýňe, pisméňkýňe</t>
   </si>
   <si>
     <t>Accusative: Rýbówes, mŕkówes, pisméňkówes</t>
   </si>
   <si>
-    <t>Locative: Rýbčyňýne, mŕkčyňýne, pisméňkčyňýne</t>
-  </si>
-  <si>
     <t>Genitive: Sóžnjýňa, kótkýňa, špýkýňa</t>
   </si>
   <si>
@@ -512,9 +491,6 @@
     <t>Accusative: Sóžnjówas, kótknjówas, špýknjówas</t>
   </si>
   <si>
-    <t>Locative: Sóžnjačyňýna, kótkačyňýna, špýkčyňýna</t>
-  </si>
-  <si>
     <t>Explanation on every verb case:</t>
   </si>
   <si>
@@ -570,13 +546,67 @@
   </si>
   <si>
     <t xml:space="preserve">t̪͡s̪ </t>
+  </si>
+  <si>
+    <t>Locative: It indicates a place or a direction.</t>
+  </si>
+  <si>
+    <t>Locative: Rýbčyne, mŕkčyne, pisméňkče</t>
+  </si>
+  <si>
+    <t>Locative: Rýbče, mŕkče, pisméňkče</t>
+  </si>
+  <si>
+    <t>Locative: Sóžnjačyna, kótkačyna, špýkčyna</t>
+  </si>
+  <si>
+    <t>Locative: Sóžnjača, kótkača, špýkče</t>
+  </si>
+  <si>
+    <t>Instrumental: It designates the noun used with or by means of which an action is performed.</t>
+  </si>
+  <si>
+    <t>Instrumental: Rybéve, mŕkňéve, pisméňkéve</t>
+  </si>
+  <si>
+    <t>Instrumental: Rybéves, mŕkňéves, pisméňkéves</t>
+  </si>
+  <si>
+    <t>Instrumental: Sóžnjáva, kótkáva, špýkáva</t>
+  </si>
+  <si>
+    <t>Instrumental: Sóžnjávas, kótkávas, špýkávas</t>
+  </si>
+  <si>
+    <t>æ</t>
+  </si>
+  <si>
+    <t>ɛ</t>
+  </si>
+  <si>
+    <t>ɵ</t>
+  </si>
+  <si>
+    <t>ä</t>
+  </si>
+  <si>
+    <t>Nominative: Rýbóse, mŕkóse, pisméňkóse</t>
+  </si>
+  <si>
+    <t>Genitive: Rýbés, mŕkés, pisméňkés</t>
+  </si>
+  <si>
+    <t>Nominative: Sóžnijósa, kótkósa, špýkósa</t>
+  </si>
+  <si>
+    <t>Genitive: Sóžnjés, kótkés, špýkés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +673,19 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -752,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1372,17 +1415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1478,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1592,6 +1624,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1619,22 +1653,16 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,22 +1674,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,16 +1692,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,6 +1734,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1871,15 +1896,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1982,6 +1998,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1991,41 +2010,63 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2313,30 +2354,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57:Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="A2" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2350,28 +2391,28 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="95"/>
+      <c r="V7" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="112" t="s">
+      <c r="V8" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="113"/>
-      <c r="X8" s="112" t="s">
+      <c r="W8" s="112"/>
+      <c r="X8" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="113"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="112"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
@@ -2402,16 +2443,16 @@
         <v>14</v>
       </c>
       <c r="X10" s="43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y10" s="44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2419,129 +2460,129 @@
         <v>15</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="129"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
       <c r="V12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="X12" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="134"/>
+      <c r="C13" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="133"/>
       <c r="V13" s="23" t="s">
         <v>17</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="X13" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125" t="s">
+      <c r="D14" s="142"/>
+      <c r="E14" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125" t="s">
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="125"/>
-      <c r="S14" s="130"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="129"/>
       <c r="V14" s="19" t="s">
         <v>18</v>
       </c>
@@ -2549,48 +2590,48 @@
         <v>18</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z14" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="126" t="s">
+      <c r="C15" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="136"/>
+      <c r="E15" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106" t="s">
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="R15" s="106"/>
-      <c r="S15" s="107"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="106"/>
       <c r="V15" s="19" t="s">
         <v>20</v>
       </c>
@@ -2598,578 +2639,578 @@
         <v>20</v>
       </c>
       <c r="X15" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z15" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
+        <v>83</v>
+      </c>
+      <c r="F16" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
       <c r="V16" s="23" t="s">
         <v>21</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="103"/>
+        <v>84</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="102"/>
       <c r="V17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="X17" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="105"/>
+        <v>85</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="104"/>
       <c r="V18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="146"/>
+      <c r="E19" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="115"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="R19" s="113"/>
+      <c r="S19" s="114"/>
       <c r="V19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="110" t="s">
-        <v>27</v>
+      <c r="W19" s="109" t="s">
+        <v>19</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y19" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" s="196" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA19" s="195" t="s">
-        <v>176</v>
+        <v>36</v>
+      </c>
+      <c r="Z19" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA19" s="51" t="s">
+        <v>168</v>
       </c>
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="158"/>
+        <v>83</v>
+      </c>
+      <c r="F20" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="154"/>
       <c r="V20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" s="111"/>
+        <v>24</v>
+      </c>
+      <c r="W20" s="110"/>
       <c r="X20" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y20" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA20" s="117"/>
+        <v>37</v>
+      </c>
+      <c r="Z20" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA20" s="116"/>
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="97"/>
+        <v>84</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="96"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="118"/>
+      <c r="AE21" s="27"/>
+    </row>
+    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="98"/>
+      <c r="X22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="118"/>
+    </row>
+    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="160"/>
+      <c r="E23" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="X23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="118"/>
+    </row>
+    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="171" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="172"/>
+      <c r="X24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="119"/>
-      <c r="AE21" s="27"/>
-    </row>
-    <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="99"/>
-      <c r="X22" s="25" t="s">
+      <c r="Y24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="120"/>
+    </row>
+    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="161"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="59"/>
+      <c r="X25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="119"/>
-    </row>
-    <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="164"/>
-      <c r="E23" s="178" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55"/>
-      <c r="X23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="119"/>
-    </row>
-    <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="175" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="176"/>
-      <c r="X24" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="121"/>
-    </row>
-    <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-      <c r="X25" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="Y25" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z25" s="46"/>
       <c r="AA25" s="47"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="167"/>
-      <c r="D26" s="168"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
       <c r="E26" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="59"/>
+        <v>85</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="61"/>
       <c r="X26" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z26" s="46"/>
       <c r="AA26" s="47"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="169" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="177" t="s">
+      <c r="C27" s="165" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="166"/>
+      <c r="E27" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147" t="s">
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147" t="s">
-        <v>110</v>
-      </c>
-      <c r="R27" s="147"/>
-      <c r="S27" s="148"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="144"/>
       <c r="X27" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z27" s="46"/>
       <c r="AA27" s="47"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="155" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="156"/>
+        <v>83</v>
+      </c>
+      <c r="F28" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="152"/>
       <c r="X28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z28" s="45"/>
+    </row>
+    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="156"/>
+      <c r="X29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="158"/>
+      <c r="X30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
+      <c r="X31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y31" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="Z28" s="45"/>
-    </row>
-    <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="171"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="159" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159"/>
-      <c r="S29" s="160"/>
-      <c r="X29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y29" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="161" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="162"/>
-      <c r="X30" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y30" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="83"/>
-      <c r="X31" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="3:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,48 +3232,48 @@
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="X32" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="144" t="s">
+      <c r="C36" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="146"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="91"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="92"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="85"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -3245,100 +3286,100 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="94"/>
-      <c r="AC52" s="94"/>
-      <c r="AD52" s="94"/>
-      <c r="AE52" s="94"/>
-      <c r="AF52" s="95"/>
+      <c r="C52" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
+      <c r="AC52" s="93"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="94"/>
     </row>
     <row r="53" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="187"/>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
-      <c r="J53" s="187"/>
-      <c r="K53" s="187"/>
-      <c r="L53" s="188"/>
-      <c r="M53" s="186" t="s">
-        <v>142</v>
-      </c>
-      <c r="N53" s="187"/>
-      <c r="O53" s="187"/>
-      <c r="P53" s="187"/>
-      <c r="Q53" s="187"/>
-      <c r="R53" s="187"/>
-      <c r="S53" s="187"/>
-      <c r="T53" s="187"/>
-      <c r="U53" s="187"/>
-      <c r="V53" s="188"/>
-      <c r="W53" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="X53" s="187"/>
-      <c r="Y53" s="187"/>
-      <c r="Z53" s="187"/>
-      <c r="AA53" s="187"/>
-      <c r="AB53" s="187"/>
-      <c r="AC53" s="187"/>
-      <c r="AD53" s="187"/>
-      <c r="AE53" s="187"/>
-      <c r="AF53" s="188"/>
+      <c r="C53" s="190" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="192"/>
+      <c r="M53" s="190" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="191"/>
+      <c r="O53" s="191"/>
+      <c r="P53" s="191"/>
+      <c r="Q53" s="191"/>
+      <c r="R53" s="191"/>
+      <c r="S53" s="191"/>
+      <c r="T53" s="191"/>
+      <c r="U53" s="191"/>
+      <c r="V53" s="192"/>
+      <c r="W53" s="190" t="s">
+        <v>139</v>
+      </c>
+      <c r="X53" s="191"/>
+      <c r="Y53" s="191"/>
+      <c r="Z53" s="191"/>
+      <c r="AA53" s="191"/>
+      <c r="AB53" s="191"/>
+      <c r="AC53" s="191"/>
+      <c r="AD53" s="191"/>
+      <c r="AE53" s="191"/>
+      <c r="AF53" s="192"/>
     </row>
     <row r="54" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
@@ -3350,7 +3391,7 @@
       <c r="K54" s="67"/>
       <c r="L54" s="68"/>
       <c r="M54" s="66" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N54" s="67"/>
       <c r="O54" s="67"/>
@@ -3362,7 +3403,7 @@
       <c r="U54" s="67"/>
       <c r="V54" s="68"/>
       <c r="W54" s="66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X54" s="67"/>
       <c r="Y54" s="67"/>
@@ -3375,572 +3416,584 @@
       <c r="AF54" s="68"/>
     </row>
     <row r="55" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="199"/>
+      <c r="W55" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="X55" s="74"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="74"/>
+      <c r="AA55" s="74"/>
+      <c r="AB55" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC55" s="69"/>
+      <c r="AD55" s="69"/>
+      <c r="AE55" s="69"/>
+      <c r="AF55" s="199"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C56" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="69" t="s">
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="182"/>
+      <c r="W56" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="182"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C57" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="182"/>
+      <c r="W57" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
+      <c r="AF57" s="182"/>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C58" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="182"/>
+      <c r="W58" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="76"/>
+      <c r="AB58" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="182"/>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C59" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="182"/>
+      <c r="W59" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="76"/>
+      <c r="AB59" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="76"/>
-      <c r="AA55" s="77"/>
-      <c r="AB55" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="70"/>
-      <c r="AE55" s="70"/>
-      <c r="AF55" s="71"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C56" s="78" t="s">
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="182"/>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C60" s="184" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="185"/>
+      <c r="E60" s="185"/>
+      <c r="F60" s="185"/>
+      <c r="G60" s="185"/>
+      <c r="H60" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="I60" s="187"/>
+      <c r="J60" s="187"/>
+      <c r="K60" s="187"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="184" t="s">
+        <v>178</v>
+      </c>
+      <c r="N60" s="185"/>
+      <c r="O60" s="185"/>
+      <c r="P60" s="185"/>
+      <c r="Q60" s="185"/>
+      <c r="R60" s="186" t="s">
+        <v>179</v>
+      </c>
+      <c r="S60" s="187"/>
+      <c r="T60" s="187"/>
+      <c r="U60" s="187"/>
+      <c r="V60" s="189"/>
+      <c r="W60" s="184" t="s">
+        <v>176</v>
+      </c>
+      <c r="X60" s="185"/>
+      <c r="Y60" s="185"/>
+      <c r="Z60" s="185"/>
+      <c r="AA60" s="185"/>
+      <c r="AB60" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC60" s="187"/>
+      <c r="AD60" s="187"/>
+      <c r="AE60" s="187"/>
+      <c r="AF60" s="189"/>
+    </row>
+    <row r="61" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="183"/>
+      <c r="W61" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="63"/>
+      <c r="AB61" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC61" s="64"/>
+      <c r="AD61" s="64"/>
+      <c r="AE61" s="64"/>
+      <c r="AF61" s="183"/>
+    </row>
+    <row r="62" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="193" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="194"/>
+      <c r="E62" s="194"/>
+      <c r="F62" s="194"/>
+      <c r="G62" s="194"/>
+      <c r="H62" s="194"/>
+      <c r="I62" s="194"/>
+      <c r="J62" s="194"/>
+      <c r="K62" s="194"/>
+      <c r="L62" s="194"/>
+      <c r="M62" s="194"/>
+      <c r="N62" s="194"/>
+      <c r="O62" s="194"/>
+      <c r="P62" s="194"/>
+      <c r="Q62" s="194"/>
+      <c r="R62" s="194"/>
+      <c r="S62" s="194"/>
+      <c r="T62" s="194"/>
+      <c r="U62" s="194"/>
+      <c r="V62" s="194"/>
+      <c r="W62" s="194"/>
+      <c r="X62" s="194"/>
+      <c r="Y62" s="194"/>
+      <c r="Z62" s="194"/>
+      <c r="AA62" s="194"/>
+      <c r="AB62" s="194"/>
+      <c r="AC62" s="194"/>
+      <c r="AD62" s="194"/>
+      <c r="AE62" s="194"/>
+      <c r="AF62" s="195"/>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C63" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="197"/>
+      <c r="I63" s="197"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="197"/>
+      <c r="M63" s="197"/>
+      <c r="N63" s="197"/>
+      <c r="O63" s="197"/>
+      <c r="P63" s="197"/>
+      <c r="Q63" s="197"/>
+      <c r="R63" s="197"/>
+      <c r="S63" s="197"/>
+      <c r="T63" s="197"/>
+      <c r="U63" s="197"/>
+      <c r="V63" s="197"/>
+      <c r="W63" s="197"/>
+      <c r="X63" s="197"/>
+      <c r="Y63" s="197"/>
+      <c r="Z63" s="197"/>
+      <c r="AA63" s="197"/>
+      <c r="AB63" s="197"/>
+      <c r="AC63" s="197"/>
+      <c r="AD63" s="197"/>
+      <c r="AE63" s="197"/>
+      <c r="AF63" s="198"/>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C64" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="177"/>
+      <c r="E64" s="177"/>
+      <c r="F64" s="177"/>
+      <c r="G64" s="177"/>
+      <c r="H64" s="177"/>
+      <c r="I64" s="177"/>
+      <c r="J64" s="177"/>
+      <c r="K64" s="177"/>
+      <c r="L64" s="177"/>
+      <c r="M64" s="177"/>
+      <c r="N64" s="177"/>
+      <c r="O64" s="177"/>
+      <c r="P64" s="177"/>
+      <c r="Q64" s="177"/>
+      <c r="R64" s="177"/>
+      <c r="S64" s="177"/>
+      <c r="T64" s="177"/>
+      <c r="U64" s="177"/>
+      <c r="V64" s="177"/>
+      <c r="W64" s="177"/>
+      <c r="X64" s="177"/>
+      <c r="Y64" s="177"/>
+      <c r="Z64" s="177"/>
+      <c r="AA64" s="177"/>
+      <c r="AB64" s="177"/>
+      <c r="AC64" s="177"/>
+      <c r="AD64" s="177"/>
+      <c r="AE64" s="177"/>
+      <c r="AF64" s="178"/>
+    </row>
+    <row r="65" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C65" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="177"/>
+      <c r="E65" s="177"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="177"/>
+      <c r="M65" s="177"/>
+      <c r="N65" s="177"/>
+      <c r="O65" s="177"/>
+      <c r="P65" s="177"/>
+      <c r="Q65" s="177"/>
+      <c r="R65" s="177"/>
+      <c r="S65" s="177"/>
+      <c r="T65" s="177"/>
+      <c r="U65" s="177"/>
+      <c r="V65" s="177"/>
+      <c r="W65" s="177"/>
+      <c r="X65" s="177"/>
+      <c r="Y65" s="177"/>
+      <c r="Z65" s="177"/>
+      <c r="AA65" s="177"/>
+      <c r="AB65" s="177"/>
+      <c r="AC65" s="177"/>
+      <c r="AD65" s="177"/>
+      <c r="AE65" s="177"/>
+      <c r="AF65" s="178"/>
+    </row>
+    <row r="66" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C66" s="176" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="177"/>
+      <c r="E66" s="177"/>
+      <c r="F66" s="177"/>
+      <c r="G66" s="177"/>
+      <c r="H66" s="177"/>
+      <c r="I66" s="177"/>
+      <c r="J66" s="177"/>
+      <c r="K66" s="177"/>
+      <c r="L66" s="177"/>
+      <c r="M66" s="177"/>
+      <c r="N66" s="177"/>
+      <c r="O66" s="177"/>
+      <c r="P66" s="177"/>
+      <c r="Q66" s="177"/>
+      <c r="R66" s="177"/>
+      <c r="S66" s="177"/>
+      <c r="T66" s="177"/>
+      <c r="U66" s="177"/>
+      <c r="V66" s="177"/>
+      <c r="W66" s="177"/>
+      <c r="X66" s="177"/>
+      <c r="Y66" s="177"/>
+      <c r="Z66" s="177"/>
+      <c r="AA66" s="177"/>
+      <c r="AB66" s="177"/>
+      <c r="AC66" s="177"/>
+      <c r="AD66" s="177"/>
+      <c r="AE66" s="177"/>
+      <c r="AF66" s="178"/>
+    </row>
+    <row r="67" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C67" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="177"/>
+      <c r="E67" s="177"/>
+      <c r="F67" s="177"/>
+      <c r="G67" s="177"/>
+      <c r="H67" s="177"/>
+      <c r="I67" s="177"/>
+      <c r="J67" s="177"/>
+      <c r="K67" s="177"/>
+      <c r="L67" s="177"/>
+      <c r="M67" s="177"/>
+      <c r="N67" s="177"/>
+      <c r="O67" s="177"/>
+      <c r="P67" s="177"/>
+      <c r="Q67" s="177"/>
+      <c r="R67" s="177"/>
+      <c r="S67" s="177"/>
+      <c r="T67" s="177"/>
+      <c r="U67" s="177"/>
+      <c r="V67" s="177"/>
+      <c r="W67" s="177"/>
+      <c r="X67" s="177"/>
+      <c r="Y67" s="177"/>
+      <c r="Z67" s="177"/>
+      <c r="AA67" s="177"/>
+      <c r="AB67" s="177"/>
+      <c r="AC67" s="177"/>
+      <c r="AD67" s="177"/>
+      <c r="AE67" s="177"/>
+      <c r="AF67" s="178"/>
+    </row>
+    <row r="68" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="180"/>
+      <c r="E68" s="180"/>
+      <c r="F68" s="180"/>
+      <c r="G68" s="180"/>
+      <c r="H68" s="180"/>
+      <c r="I68" s="180"/>
+      <c r="J68" s="180"/>
+      <c r="K68" s="180"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="180"/>
+      <c r="N68" s="180"/>
+      <c r="O68" s="180"/>
+      <c r="P68" s="180"/>
+      <c r="Q68" s="180"/>
+      <c r="R68" s="180"/>
+      <c r="S68" s="180"/>
+      <c r="T68" s="180"/>
+      <c r="U68" s="180"/>
+      <c r="V68" s="180"/>
+      <c r="W68" s="180"/>
+      <c r="X68" s="180"/>
+      <c r="Y68" s="180"/>
+      <c r="Z68" s="180"/>
+      <c r="AA68" s="180"/>
+      <c r="AB68" s="180"/>
+      <c r="AC68" s="180"/>
+      <c r="AD68" s="180"/>
+      <c r="AE68" s="180"/>
+      <c r="AF68" s="181"/>
+    </row>
+    <row r="69" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="74"/>
-      <c r="W56" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="X56" s="79"/>
-      <c r="Y56" s="79"/>
-      <c r="Z56" s="79"/>
-      <c r="AA56" s="80"/>
-      <c r="AB56" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73"/>
-      <c r="AF56" s="74"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C57" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="79"/>
-      <c r="AA57" s="80"/>
-      <c r="AB57" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="73"/>
-      <c r="AE57" s="73"/>
-      <c r="AF57" s="74"/>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C58" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-      <c r="AA58" s="80"/>
-      <c r="AB58" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC58" s="73"/>
-      <c r="AD58" s="73"/>
-      <c r="AE58" s="73"/>
-      <c r="AF58" s="74"/>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C59" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-      <c r="AA59" s="80"/>
-      <c r="AB59" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC59" s="73"/>
-      <c r="AD59" s="73"/>
-      <c r="AE59" s="73"/>
-      <c r="AF59" s="74"/>
-    </row>
-    <row r="60" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="S60" s="64"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
-      <c r="AA60" s="62"/>
-      <c r="AB60" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC60" s="64"/>
-      <c r="AD60" s="64"/>
-      <c r="AE60" s="64"/>
-      <c r="AF60" s="65"/>
-    </row>
-    <row r="61" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="189" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="190"/>
-      <c r="E61" s="190"/>
-      <c r="F61" s="190"/>
-      <c r="G61" s="190"/>
-      <c r="H61" s="190"/>
-      <c r="I61" s="190"/>
-      <c r="J61" s="190"/>
-      <c r="K61" s="190"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="190"/>
-      <c r="N61" s="190"/>
-      <c r="O61" s="190"/>
-      <c r="P61" s="190"/>
-      <c r="Q61" s="190"/>
-      <c r="R61" s="190"/>
-      <c r="S61" s="190"/>
-      <c r="T61" s="190"/>
-      <c r="U61" s="190"/>
-      <c r="V61" s="190"/>
-      <c r="W61" s="190"/>
-      <c r="X61" s="190"/>
-      <c r="Y61" s="190"/>
-      <c r="Z61" s="190"/>
-      <c r="AA61" s="190"/>
-      <c r="AB61" s="190"/>
-      <c r="AC61" s="190"/>
-      <c r="AD61" s="190"/>
-      <c r="AE61" s="190"/>
-      <c r="AF61" s="191"/>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C62" s="192" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="193"/>
-      <c r="E62" s="193"/>
-      <c r="F62" s="193"/>
-      <c r="G62" s="193"/>
-      <c r="H62" s="193"/>
-      <c r="I62" s="193"/>
-      <c r="J62" s="193"/>
-      <c r="K62" s="193"/>
-      <c r="L62" s="193"/>
-      <c r="M62" s="193"/>
-      <c r="N62" s="193"/>
-      <c r="O62" s="193"/>
-      <c r="P62" s="193"/>
-      <c r="Q62" s="193"/>
-      <c r="R62" s="193"/>
-      <c r="S62" s="193"/>
-      <c r="T62" s="193"/>
-      <c r="U62" s="193"/>
-      <c r="V62" s="193"/>
-      <c r="W62" s="193"/>
-      <c r="X62" s="193"/>
-      <c r="Y62" s="193"/>
-      <c r="Z62" s="193"/>
-      <c r="AA62" s="193"/>
-      <c r="AB62" s="193"/>
-      <c r="AC62" s="193"/>
-      <c r="AD62" s="193"/>
-      <c r="AE62" s="193"/>
-      <c r="AF62" s="194"/>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C63" s="180" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="181"/>
-      <c r="E63" s="181"/>
-      <c r="F63" s="181"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="181"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="181"/>
-      <c r="L63" s="181"/>
-      <c r="M63" s="181"/>
-      <c r="N63" s="181"/>
-      <c r="O63" s="181"/>
-      <c r="P63" s="181"/>
-      <c r="Q63" s="181"/>
-      <c r="R63" s="181"/>
-      <c r="S63" s="181"/>
-      <c r="T63" s="181"/>
-      <c r="U63" s="181"/>
-      <c r="V63" s="181"/>
-      <c r="W63" s="181"/>
-      <c r="X63" s="181"/>
-      <c r="Y63" s="181"/>
-      <c r="Z63" s="181"/>
-      <c r="AA63" s="181"/>
-      <c r="AB63" s="181"/>
-      <c r="AC63" s="181"/>
-      <c r="AD63" s="181"/>
-      <c r="AE63" s="181"/>
-      <c r="AF63" s="182"/>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C64" s="180" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="181"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="181"/>
-      <c r="K64" s="181"/>
-      <c r="L64" s="181"/>
-      <c r="M64" s="181"/>
-      <c r="N64" s="181"/>
-      <c r="O64" s="181"/>
-      <c r="P64" s="181"/>
-      <c r="Q64" s="181"/>
-      <c r="R64" s="181"/>
-      <c r="S64" s="181"/>
-      <c r="T64" s="181"/>
-      <c r="U64" s="181"/>
-      <c r="V64" s="181"/>
-      <c r="W64" s="181"/>
-      <c r="X64" s="181"/>
-      <c r="Y64" s="181"/>
-      <c r="Z64" s="181"/>
-      <c r="AA64" s="181"/>
-      <c r="AB64" s="181"/>
-      <c r="AC64" s="181"/>
-      <c r="AD64" s="181"/>
-      <c r="AE64" s="181"/>
-      <c r="AF64" s="182"/>
-    </row>
-    <row r="65" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C65" s="180" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="181"/>
-      <c r="E65" s="181"/>
-      <c r="F65" s="181"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="181"/>
-      <c r="I65" s="181"/>
-      <c r="J65" s="181"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="181"/>
-      <c r="M65" s="181"/>
-      <c r="N65" s="181"/>
-      <c r="O65" s="181"/>
-      <c r="P65" s="181"/>
-      <c r="Q65" s="181"/>
-      <c r="R65" s="181"/>
-      <c r="S65" s="181"/>
-      <c r="T65" s="181"/>
-      <c r="U65" s="181"/>
-      <c r="V65" s="181"/>
-      <c r="W65" s="181"/>
-      <c r="X65" s="181"/>
-      <c r="Y65" s="181"/>
-      <c r="Z65" s="181"/>
-      <c r="AA65" s="181"/>
-      <c r="AB65" s="181"/>
-      <c r="AC65" s="181"/>
-      <c r="AD65" s="181"/>
-      <c r="AE65" s="181"/>
-      <c r="AF65" s="182"/>
-    </row>
-    <row r="66" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C66" s="180" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="181"/>
-      <c r="E66" s="181"/>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
-      <c r="H66" s="181"/>
-      <c r="I66" s="181"/>
-      <c r="J66" s="181"/>
-      <c r="K66" s="181"/>
-      <c r="L66" s="181"/>
-      <c r="M66" s="181"/>
-      <c r="N66" s="181"/>
-      <c r="O66" s="181"/>
-      <c r="P66" s="181"/>
-      <c r="Q66" s="181"/>
-      <c r="R66" s="181"/>
-      <c r="S66" s="181"/>
-      <c r="T66" s="181"/>
-      <c r="U66" s="181"/>
-      <c r="V66" s="181"/>
-      <c r="W66" s="181"/>
-      <c r="X66" s="181"/>
-      <c r="Y66" s="181"/>
-      <c r="Z66" s="181"/>
-      <c r="AA66" s="181"/>
-      <c r="AB66" s="181"/>
-      <c r="AC66" s="181"/>
-      <c r="AD66" s="181"/>
-      <c r="AE66" s="181"/>
-      <c r="AF66" s="182"/>
-    </row>
-    <row r="67" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="184"/>
-      <c r="E67" s="184"/>
-      <c r="F67" s="184"/>
-      <c r="G67" s="184"/>
-      <c r="H67" s="184"/>
-      <c r="I67" s="184"/>
-      <c r="J67" s="184"/>
-      <c r="K67" s="184"/>
-      <c r="L67" s="184"/>
-      <c r="M67" s="184"/>
-      <c r="N67" s="184"/>
-      <c r="O67" s="184"/>
-      <c r="P67" s="184"/>
-      <c r="Q67" s="184"/>
-      <c r="R67" s="184"/>
-      <c r="S67" s="184"/>
-      <c r="T67" s="184"/>
-      <c r="U67" s="184"/>
-      <c r="V67" s="184"/>
-      <c r="W67" s="184"/>
-      <c r="X67" s="184"/>
-      <c r="Y67" s="184"/>
-      <c r="Z67" s="184"/>
-      <c r="AA67" s="184"/>
-      <c r="AB67" s="184"/>
-      <c r="AC67" s="184"/>
-      <c r="AD67" s="184"/>
-      <c r="AE67" s="184"/>
-      <c r="AF67" s="185"/>
-    </row>
-    <row r="68" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="52"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="52"/>
-      <c r="AC68" s="52"/>
-      <c r="AD68" s="52"/>
-      <c r="AE68" s="52"/>
-      <c r="AF68" s="53"/>
-    </row>
-    <row r="69" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-      <c r="Y69" s="48"/>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
-      <c r="AF69" s="48"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="54"/>
+      <c r="AA69" s="54"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="54"/>
+      <c r="AD69" s="54"/>
+      <c r="AE69" s="54"/>
+      <c r="AF69" s="55"/>
     </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C70" s="48"/>
@@ -4038,239 +4091,271 @@
       <c r="AE72" s="48"/>
       <c r="AF72" s="48"/>
     </row>
+    <row r="73" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="48"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="48"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="48"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="48"/>
+      <c r="AE73" s="48"/>
+      <c r="AF73" s="48"/>
+    </row>
     <row r="77" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C77" s="179" t="s">
+      <c r="C77" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="175"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="175"/>
+      <c r="G77" s="175"/>
+      <c r="H77" s="175"/>
+      <c r="I77" s="175"/>
+      <c r="J77" s="175"/>
+      <c r="K77" s="175"/>
+      <c r="L77" s="175"/>
+    </row>
+    <row r="78" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C78" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="175"/>
+      <c r="E78" s="175"/>
+      <c r="F78" s="175"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="175"/>
+      <c r="I78" s="175"/>
+      <c r="J78" s="175"/>
+      <c r="K78" s="175"/>
+      <c r="L78" s="175"/>
+    </row>
+    <row r="79" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C79" s="175" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="I79" s="175"/>
+      <c r="J79" s="175"/>
+      <c r="K79" s="175"/>
+      <c r="L79" s="175"/>
+    </row>
+    <row r="80" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C80" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="175"/>
+      <c r="J80" s="175"/>
+      <c r="K80" s="175"/>
+      <c r="L80" s="175"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C81" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="I81" s="175"/>
+      <c r="J81" s="175"/>
+      <c r="K81" s="175"/>
+      <c r="L81" s="175"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C82" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="175"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="175"/>
+      <c r="G82" s="175"/>
+      <c r="H82" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="I82" s="175"/>
+      <c r="J82" s="175"/>
+      <c r="K82" s="175"/>
+      <c r="L82" s="175"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C83" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="D77" s="179"/>
-      <c r="E77" s="179"/>
-      <c r="F77" s="179"/>
-      <c r="G77" s="179"/>
-      <c r="H77" s="179"/>
-      <c r="I77" s="179"/>
-      <c r="J77" s="179"/>
-      <c r="K77" s="179"/>
-      <c r="L77" s="179"/>
-    </row>
-    <row r="78" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C78" s="179" t="s">
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" s="175"/>
+      <c r="J83" s="175"/>
+      <c r="K83" s="175"/>
+      <c r="L83" s="175"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C84" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="179"/>
-      <c r="E78" s="179"/>
-      <c r="F78" s="179"/>
-      <c r="G78" s="179"/>
-      <c r="H78" s="179"/>
-      <c r="I78" s="179"/>
-      <c r="J78" s="179"/>
-      <c r="K78" s="179"/>
-      <c r="L78" s="179"/>
-    </row>
-    <row r="79" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C79" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="179"/>
-      <c r="E79" s="179"/>
-      <c r="F79" s="179"/>
-      <c r="G79" s="179"/>
-      <c r="H79" s="179" t="s">
-        <v>124</v>
-      </c>
-      <c r="I79" s="179"/>
-      <c r="J79" s="179"/>
-      <c r="K79" s="179"/>
-      <c r="L79" s="179"/>
-    </row>
-    <row r="80" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C80" s="179" t="s">
-        <v>133</v>
-      </c>
-      <c r="D80" s="179"/>
-      <c r="E80" s="179"/>
-      <c r="F80" s="179"/>
-      <c r="G80" s="179"/>
-      <c r="H80" s="179" t="s">
-        <v>133</v>
-      </c>
-      <c r="I80" s="179"/>
-      <c r="J80" s="179"/>
-      <c r="K80" s="179"/>
-      <c r="L80" s="179"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C81" s="179" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="179"/>
-      <c r="E81" s="179"/>
-      <c r="F81" s="179"/>
-      <c r="G81" s="179"/>
-      <c r="H81" s="179" t="s">
-        <v>126</v>
-      </c>
-      <c r="I81" s="179"/>
-      <c r="J81" s="179"/>
-      <c r="K81" s="179"/>
-      <c r="L81" s="179"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C82" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="179"/>
-      <c r="H82" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="I82" s="179"/>
-      <c r="J82" s="179"/>
-      <c r="K82" s="179"/>
-      <c r="L82" s="179"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C83" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
-      <c r="F83" s="179"/>
-      <c r="G83" s="179"/>
-      <c r="H83" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="I83" s="179"/>
-      <c r="J83" s="179"/>
-      <c r="K83" s="179"/>
-      <c r="L83" s="179"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C84" s="179" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="179"/>
-      <c r="E84" s="179"/>
-      <c r="F84" s="179"/>
-      <c r="G84" s="179"/>
-      <c r="H84" s="179" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" s="179"/>
-      <c r="J84" s="179"/>
-      <c r="K84" s="179"/>
-      <c r="L84" s="179"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="I84" s="175"/>
+      <c r="J84" s="175"/>
+      <c r="K84" s="175"/>
+      <c r="L84" s="175"/>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C85" s="179" t="s">
+      <c r="C85" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="175"/>
+      <c r="I85" s="175"/>
+      <c r="J85" s="175"/>
+      <c r="K85" s="175"/>
+      <c r="L85" s="175"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C86" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="175"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="175"/>
+      <c r="K86" s="175"/>
+      <c r="L86" s="175"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C87" s="175" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
+      <c r="G87" s="175"/>
+      <c r="H87" s="175"/>
+      <c r="I87" s="175"/>
+      <c r="J87" s="175"/>
+      <c r="K87" s="175"/>
+      <c r="L87" s="175"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C88" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="175"/>
+      <c r="L88" s="175"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C89" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
+      <c r="G89" s="175"/>
+      <c r="H89" s="175"/>
+      <c r="I89" s="175"/>
+      <c r="J89" s="175"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="175"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C90" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="179"/>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="179"/>
-      <c r="H85" s="179"/>
-      <c r="I85" s="179"/>
-      <c r="J85" s="179"/>
-      <c r="K85" s="179"/>
-      <c r="L85" s="179"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C86" s="179" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" s="179"/>
-      <c r="E86" s="179"/>
-      <c r="F86" s="179"/>
-      <c r="G86" s="179"/>
-      <c r="H86" s="179"/>
-      <c r="I86" s="179"/>
-      <c r="J86" s="179"/>
-      <c r="K86" s="179"/>
-      <c r="L86" s="179"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C87" s="179" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="179"/>
-      <c r="E87" s="179"/>
-      <c r="F87" s="179"/>
-      <c r="G87" s="179"/>
-      <c r="H87" s="179"/>
-      <c r="I87" s="179"/>
-      <c r="J87" s="179"/>
-      <c r="K87" s="179"/>
-      <c r="L87" s="179"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C88" s="179" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="179"/>
-      <c r="E88" s="179"/>
-      <c r="F88" s="179"/>
-      <c r="G88" s="179"/>
-      <c r="H88" s="179"/>
-      <c r="I88" s="179"/>
-      <c r="J88" s="179"/>
-      <c r="K88" s="179"/>
-      <c r="L88" s="179"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C89" s="179" t="s">
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="175"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C91" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="179"/>
-      <c r="E89" s="179"/>
-      <c r="F89" s="179"/>
-      <c r="G89" s="179"/>
-      <c r="H89" s="179"/>
-      <c r="I89" s="179"/>
-      <c r="J89" s="179"/>
-      <c r="K89" s="179"/>
-      <c r="L89" s="179"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C90" s="179" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="179"/>
-      <c r="E90" s="179"/>
-      <c r="F90" s="179"/>
-      <c r="G90" s="179"/>
-      <c r="H90" s="179"/>
-      <c r="I90" s="179"/>
-      <c r="J90" s="179"/>
-      <c r="K90" s="179"/>
-      <c r="L90" s="179"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C91" s="179" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="179"/>
-      <c r="E91" s="179"/>
-      <c r="F91" s="179"/>
-      <c r="G91" s="179"/>
-      <c r="H91" s="179"/>
-      <c r="I91" s="179"/>
-      <c r="J91" s="179"/>
-      <c r="K91" s="179"/>
-      <c r="L91" s="179"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="175"/>
+      <c r="I91" s="175"/>
+      <c r="J91" s="175"/>
+      <c r="K91" s="175"/>
+      <c r="L91" s="175"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="135">
     <mergeCell ref="C52:AF52"/>
     <mergeCell ref="C53:L53"/>
     <mergeCell ref="M53:V53"/>
     <mergeCell ref="W53:AF53"/>
-    <mergeCell ref="C61:AF61"/>
     <mergeCell ref="C62:AF62"/>
     <mergeCell ref="C63:AF63"/>
     <mergeCell ref="C64:AF64"/>
     <mergeCell ref="C65:AF65"/>
+    <mergeCell ref="C66:AF66"/>
     <mergeCell ref="M54:V54"/>
     <mergeCell ref="M55:Q55"/>
     <mergeCell ref="R55:V55"/>
@@ -4281,14 +4366,14 @@
     <mergeCell ref="AB55:AF55"/>
     <mergeCell ref="W56:AA56"/>
     <mergeCell ref="AB56:AF56"/>
-    <mergeCell ref="C66:AF66"/>
     <mergeCell ref="C67:AF67"/>
+    <mergeCell ref="C68:AF68"/>
     <mergeCell ref="W59:AA59"/>
     <mergeCell ref="AB59:AF59"/>
-    <mergeCell ref="W60:AA60"/>
-    <mergeCell ref="AB60:AF60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="W61:AA61"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R61:V61"/>
     <mergeCell ref="M57:Q57"/>
     <mergeCell ref="R57:V57"/>
     <mergeCell ref="M58:Q58"/>
@@ -4299,6 +4384,12 @@
     <mergeCell ref="AB57:AF57"/>
     <mergeCell ref="W58:AA58"/>
     <mergeCell ref="AB58:AF58"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="W60:AA60"/>
+    <mergeCell ref="AB60:AF60"/>
     <mergeCell ref="C91:L91"/>
     <mergeCell ref="C86:L86"/>
     <mergeCell ref="C87:L87"/>
@@ -4367,14 +4458,14 @@
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="Z20:AA24"/>
-    <mergeCell ref="C68:AF68"/>
+    <mergeCell ref="C69:AF69"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="F25:S25"/>
     <mergeCell ref="F26:S26"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
     <mergeCell ref="C54:L54"/>
     <mergeCell ref="H55:L55"/>
     <mergeCell ref="H56:L56"/>

--- a/oh boy.xlsx
+++ b/oh boy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01171E-FED6-4F07-93F8-C9BA2FD01414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB286A7-D390-4614-9669-32A3415380FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,9 +437,6 @@
     <t xml:space="preserve">Locative: </t>
   </si>
   <si>
-    <t>Dative: Rýbnjes, mŕknjes, pisméňknjés</t>
-  </si>
-  <si>
     <t>Genitive: Rýbiňi, mŕkiňi, pisméňkiň</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>Genitive: Rýbýňe, mŕkýňe, pisméňkýňe</t>
   </si>
   <si>
-    <t>Accusative: Rýbówes, mŕkówes, pisméňkówes</t>
-  </si>
-  <si>
     <t>Genitive: Sóžnjýňa, kótkýňa, špýkýňa</t>
   </si>
   <si>
@@ -569,9 +563,6 @@
     <t>Instrumental: Rybéve, mŕkňéve, pisméňkéve</t>
   </si>
   <si>
-    <t>Instrumental: Rybéves, mŕkňéves, pisméňkéves</t>
-  </si>
-  <si>
     <t>Instrumental: Sóžnjáva, kótkáva, špýkáva</t>
   </si>
   <si>
@@ -590,9 +581,6 @@
     <t>ä</t>
   </si>
   <si>
-    <t>Nominative: Rýbóse, mŕkóse, pisméňkóse</t>
-  </si>
-  <si>
     <t>Genitive: Rýbés, mŕkés, pisméňkés</t>
   </si>
   <si>
@@ -600,6 +588,18 @@
   </si>
   <si>
     <t>Genitive: Sóžnjés, kótkés, špýkés</t>
+  </si>
+  <si>
+    <t>Nominative: Rýbém, mŕkém, pisméňkém</t>
+  </si>
+  <si>
+    <t>Dative: Rýbnjém, mŕknjém, pisméňknjés</t>
+  </si>
+  <si>
+    <t>Accusative: Rýbówém, mŕkówém, pisméňkówém</t>
+  </si>
+  <si>
+    <t>Instrumental: Rybévém, mŕkňévém, pisméňkévém</t>
   </si>
 </sst>
 </file>
@@ -1626,18 +1626,378 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,49 +2013,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,330 +2065,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2354,30 +2354,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57:Q57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55:L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="A2" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2391,28 +2391,28 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V7" s="92" t="s">
+      <c r="V7" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="55"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V8" s="111" t="s">
+      <c r="V8" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="112"/>
-      <c r="X8" s="111" t="s">
+      <c r="W8" s="165"/>
+      <c r="X8" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="111" t="s">
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" s="112"/>
+      <c r="AA8" s="165"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V9" s="17" t="s">
@@ -2460,13 +2460,13 @@
         <v>15</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Z11" s="22" t="s">
         <v>55</v>
@@ -2476,30 +2476,30 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="128"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="134"/>
       <c r="V12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="X12" s="25" t="s">
         <v>29</v>
@@ -2515,30 +2515,30 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="133"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="139"/>
       <c r="V13" s="23" t="s">
         <v>17</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X13" s="20" t="s">
         <v>30</v>
@@ -2554,35 +2554,35 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="122" t="s">
+      <c r="D14" s="148"/>
+      <c r="E14" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124" t="s">
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124" t="s">
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="124"/>
-      <c r="S14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="135"/>
       <c r="V14" s="19" t="s">
         <v>18</v>
       </c>
@@ -2603,35 +2603,35 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="125" t="s">
+      <c r="D15" s="142"/>
+      <c r="E15" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105" t="s">
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105" t="s">
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105" t="s">
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105" t="s">
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="105"/>
-      <c r="S15" s="106"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="159"/>
       <c r="V15" s="19" t="s">
         <v>20</v>
       </c>
@@ -2652,27 +2652,27 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="137"/>
-      <c r="D16" s="138"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
+      <c r="F16" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="154"/>
       <c r="V16" s="23" t="s">
         <v>21</v>
       </c>
@@ -2693,32 +2693,32 @@
       </c>
     </row>
     <row r="17" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="102"/>
+      <c r="F17" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="156"/>
       <c r="V17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="X17" s="20" t="s">
         <v>34</v>
@@ -2734,27 +2734,27 @@
       </c>
     </row>
     <row r="18" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="146"/>
       <c r="E18" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="104"/>
+      <c r="F18" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="158"/>
       <c r="V18" s="23" t="s">
         <v>23</v>
       </c>
@@ -2775,39 +2775,39 @@
       </c>
     </row>
     <row r="19" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="107" t="s">
+      <c r="D19" s="96"/>
+      <c r="E19" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108" t="s">
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108" t="s">
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="113" t="s">
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113" t="s">
+      <c r="O19" s="166"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="R19" s="113"/>
-      <c r="S19" s="114"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="167"/>
       <c r="V19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="109" t="s">
+      <c r="W19" s="162" t="s">
         <v>19</v>
       </c>
       <c r="X19" s="20" t="s">
@@ -2817,73 +2817,73 @@
         <v>36</v>
       </c>
       <c r="Z19" s="52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA19" s="51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="153" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="154"/>
+      <c r="F20" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="104"/>
       <c r="V20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="W20" s="110"/>
+      <c r="W20" s="163"/>
       <c r="X20" s="20" t="s">
         <v>37</v>
       </c>
       <c r="Y20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Z20" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA20" s="116"/>
+      <c r="Z20" s="168" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA20" s="169"/>
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="96"/>
+      <c r="F21" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="150"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="20" t="s">
@@ -2892,133 +2892,133 @@
       <c r="Y21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="118"/>
+      <c r="Z21" s="170"/>
+      <c r="AA21" s="171"/>
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="98"/>
+      <c r="F22" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="152"/>
       <c r="X22" s="25" t="s">
         <v>39</v>
       </c>
       <c r="Y22" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="118"/>
+      <c r="Z22" s="170"/>
+      <c r="AA22" s="171"/>
     </row>
     <row r="23" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="174" t="s">
+      <c r="D23" s="110"/>
+      <c r="E23" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56" t="s">
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56" t="s">
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56" t="s">
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56" t="s">
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="177"/>
       <c r="X23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="118"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="171"/>
     </row>
     <row r="24" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="171" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="172"/>
+      <c r="F24" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="122"/>
       <c r="X24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="120"/>
+      <c r="Z24" s="172"/>
+      <c r="AA24" s="173"/>
     </row>
     <row r="25" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="161"/>
-      <c r="D25" s="162"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
+      <c r="F25" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="179"/>
       <c r="X25" s="25" t="s">
         <v>42</v>
       </c>
@@ -3029,27 +3029,27 @@
       <c r="AA25" s="47"/>
     </row>
     <row r="26" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="61"/>
+      <c r="F26" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="180"/>
+      <c r="S26" s="181"/>
       <c r="X26" s="20" t="s">
         <v>43</v>
       </c>
@@ -3060,35 +3060,35 @@
       <c r="AA26" s="47"/>
     </row>
     <row r="27" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="173" t="s">
+      <c r="D27" s="116"/>
+      <c r="E27" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143" t="s">
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143" t="s">
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143" t="s">
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="R27" s="143"/>
-      <c r="S27" s="144"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="94"/>
       <c r="X27" s="25" t="s">
         <v>44</v>
       </c>
@@ -3099,27 +3099,27 @@
       <c r="AA27" s="47"/>
     </row>
     <row r="28" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="167"/>
-      <c r="D28" s="168"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="152"/>
+      <c r="F28" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="102"/>
       <c r="X28" s="20" t="s">
         <v>45</v>
       </c>
@@ -3129,27 +3129,27 @@
       <c r="Z28" s="45"/>
     </row>
     <row r="29" spans="3:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="156"/>
+      <c r="F29" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="106"/>
       <c r="X29" s="20" t="s">
         <v>46</v>
       </c>
@@ -3158,27 +3158,27 @@
       </c>
     </row>
     <row r="30" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="158"/>
+      <c r="F30" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
       <c r="X30" s="20" t="s">
         <v>47</v>
       </c>
@@ -3187,25 +3187,25 @@
       </c>
     </row>
     <row r="31" spans="3:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="79"/>
+      <c r="C31" s="185" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="187"/>
       <c r="X31" s="20" t="s">
         <v>48</v>
       </c>
@@ -3240,40 +3240,40 @@
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="91"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="199"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="196"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="82"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="190"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="193"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
@@ -3306,158 +3306,158 @@
     </row>
     <row r="51" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="93"/>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="93"/>
-      <c r="Z52" s="93"/>
-      <c r="AA52" s="93"/>
-      <c r="AB52" s="93"/>
-      <c r="AC52" s="93"/>
-      <c r="AD52" s="93"/>
-      <c r="AE52" s="93"/>
-      <c r="AF52" s="94"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="55"/>
     </row>
     <row r="53" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="190" t="s">
+      <c r="C53" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="57"/>
+      <c r="AA53" s="57"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="58"/>
+    </row>
+    <row r="54" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="192"/>
-      <c r="M53" s="190" t="s">
-        <v>138</v>
-      </c>
-      <c r="N53" s="191"/>
-      <c r="O53" s="191"/>
-      <c r="P53" s="191"/>
-      <c r="Q53" s="191"/>
-      <c r="R53" s="191"/>
-      <c r="S53" s="191"/>
-      <c r="T53" s="191"/>
-      <c r="U53" s="191"/>
-      <c r="V53" s="192"/>
-      <c r="W53" s="190" t="s">
-        <v>139</v>
-      </c>
-      <c r="X53" s="191"/>
-      <c r="Y53" s="191"/>
-      <c r="Z53" s="191"/>
-      <c r="AA53" s="191"/>
-      <c r="AB53" s="191"/>
-      <c r="AC53" s="191"/>
-      <c r="AD53" s="191"/>
-      <c r="AE53" s="191"/>
-      <c r="AF53" s="192"/>
-    </row>
-    <row r="54" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="66" t="s">
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
-      <c r="AE54" s="67"/>
-      <c r="AF54" s="68"/>
+      <c r="X54" s="69"/>
+      <c r="Y54" s="69"/>
+      <c r="Z54" s="69"/>
+      <c r="AA54" s="69"/>
+      <c r="AB54" s="69"/>
+      <c r="AC54" s="69"/>
+      <c r="AD54" s="69"/>
+      <c r="AE54" s="69"/>
+      <c r="AF54" s="70"/>
     </row>
     <row r="55" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="69" t="s">
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="73" t="s">
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="69" t="s">
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="199"/>
-      <c r="W55" s="73" t="s">
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="74"/>
+      <c r="W55" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="X55" s="74"/>
-      <c r="Y55" s="74"/>
-      <c r="Z55" s="74"/>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="69" t="s">
+      <c r="X55" s="72"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="AC55" s="69"/>
-      <c r="AD55" s="69"/>
-      <c r="AE55" s="69"/>
-      <c r="AF55" s="199"/>
+      <c r="AC55" s="73"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="73"/>
+      <c r="AF55" s="74"/>
     </row>
     <row r="56" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C56" s="75" t="s">
@@ -3467,27 +3467,27 @@
       <c r="E56" s="76"/>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
-      <c r="H56" s="71" t="s">
+      <c r="H56" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="72"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="184"/>
       <c r="M56" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
       <c r="P56" s="76"/>
       <c r="Q56" s="76"/>
-      <c r="R56" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="182"/>
+      <c r="R56" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="78"/>
       <c r="W56" s="75" t="s">
         <v>111</v>
       </c>
@@ -3495,87 +3495,87 @@
       <c r="Y56" s="76"/>
       <c r="Z56" s="76"/>
       <c r="AA56" s="76"/>
-      <c r="AB56" s="71" t="s">
+      <c r="AB56" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="71"/>
-      <c r="AE56" s="71"/>
-      <c r="AF56" s="182"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="78"/>
     </row>
     <row r="57" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C57" s="75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D57" s="76"/>
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
       <c r="G57" s="76"/>
-      <c r="H57" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="72"/>
+      <c r="H57" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="184"/>
       <c r="M57" s="75" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N57" s="76"/>
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
       <c r="Q57" s="76"/>
-      <c r="R57" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="182"/>
+      <c r="R57" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="78"/>
       <c r="W57" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X57" s="76"/>
       <c r="Y57" s="76"/>
       <c r="Z57" s="76"/>
       <c r="AA57" s="76"/>
-      <c r="AB57" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="71"/>
-      <c r="AE57" s="71"/>
-      <c r="AF57" s="182"/>
+      <c r="AB57" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="78"/>
     </row>
     <row r="58" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C58" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="76"/>
       <c r="E58" s="76"/>
       <c r="F58" s="76"/>
       <c r="G58" s="76"/>
-      <c r="H58" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="72"/>
+      <c r="H58" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="184"/>
       <c r="M58" s="75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N58" s="76"/>
       <c r="O58" s="76"/>
       <c r="P58" s="76"/>
       <c r="Q58" s="76"/>
-      <c r="R58" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="182"/>
+      <c r="R58" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="77"/>
+      <c r="V58" s="78"/>
       <c r="W58" s="75" t="s">
         <v>112</v>
       </c>
@@ -3583,13 +3583,13 @@
       <c r="Y58" s="76"/>
       <c r="Z58" s="76"/>
       <c r="AA58" s="76"/>
-      <c r="AB58" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="71"/>
-      <c r="AE58" s="71"/>
-      <c r="AF58" s="182"/>
+      <c r="AB58" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC58" s="77"/>
+      <c r="AD58" s="77"/>
+      <c r="AE58" s="77"/>
+      <c r="AF58" s="78"/>
     </row>
     <row r="59" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C59" s="75" t="s">
@@ -3599,27 +3599,27 @@
       <c r="E59" s="76"/>
       <c r="F59" s="76"/>
       <c r="G59" s="76"/>
-      <c r="H59" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="72"/>
+      <c r="H59" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="184"/>
       <c r="M59" s="75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N59" s="76"/>
       <c r="O59" s="76"/>
       <c r="P59" s="76"/>
       <c r="Q59" s="76"/>
-      <c r="R59" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="182"/>
+      <c r="R59" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="78"/>
       <c r="W59" s="75" t="s">
         <v>113</v>
       </c>
@@ -3627,373 +3627,373 @@
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="76"/>
-      <c r="AB59" s="71" t="s">
+      <c r="AB59" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
-      <c r="AE59" s="71"/>
-      <c r="AF59" s="182"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="77"/>
+      <c r="AF59" s="78"/>
     </row>
     <row r="60" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C60" s="184" t="s">
+      <c r="C60" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="185"/>
-      <c r="E60" s="185"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="185"/>
-      <c r="H60" s="186" t="s">
-        <v>177</v>
-      </c>
-      <c r="I60" s="187"/>
-      <c r="J60" s="187"/>
-      <c r="K60" s="187"/>
-      <c r="L60" s="188"/>
-      <c r="M60" s="184" t="s">
-        <v>178</v>
-      </c>
-      <c r="N60" s="185"/>
-      <c r="O60" s="185"/>
-      <c r="P60" s="185"/>
-      <c r="Q60" s="185"/>
-      <c r="R60" s="186" t="s">
-        <v>179</v>
-      </c>
-      <c r="S60" s="187"/>
-      <c r="T60" s="187"/>
-      <c r="U60" s="187"/>
-      <c r="V60" s="189"/>
-      <c r="W60" s="184" t="s">
-        <v>176</v>
-      </c>
-      <c r="X60" s="185"/>
-      <c r="Y60" s="185"/>
-      <c r="Z60" s="185"/>
-      <c r="AA60" s="185"/>
-      <c r="AB60" s="186" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC60" s="187"/>
-      <c r="AD60" s="187"/>
-      <c r="AE60" s="187"/>
-      <c r="AF60" s="189"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="89"/>
+      <c r="V60" s="91"/>
+      <c r="W60" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="X60" s="87"/>
+      <c r="Y60" s="87"/>
+      <c r="Z60" s="87"/>
+      <c r="AA60" s="87"/>
+      <c r="AB60" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC60" s="89"/>
+      <c r="AD60" s="89"/>
+      <c r="AE60" s="89"/>
+      <c r="AF60" s="91"/>
     </row>
     <row r="61" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="182"/>
+      <c r="M61" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64" t="s">
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="64" t="s">
+      <c r="S61" s="84"/>
+      <c r="T61" s="84"/>
+      <c r="U61" s="84"/>
+      <c r="V61" s="85"/>
+      <c r="W61" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="X61" s="83"/>
+      <c r="Y61" s="83"/>
+      <c r="Z61" s="83"/>
+      <c r="AA61" s="83"/>
+      <c r="AB61" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC61" s="84"/>
+      <c r="AD61" s="84"/>
+      <c r="AE61" s="84"/>
+      <c r="AF61" s="85"/>
+    </row>
+    <row r="62" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="60"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="60"/>
+      <c r="AA62" s="60"/>
+      <c r="AB62" s="60"/>
+      <c r="AC62" s="60"/>
+      <c r="AD62" s="60"/>
+      <c r="AE62" s="60"/>
+      <c r="AF62" s="61"/>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C63" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="63"/>
+      <c r="W63" s="63"/>
+      <c r="X63" s="63"/>
+      <c r="Y63" s="63"/>
+      <c r="Z63" s="63"/>
+      <c r="AA63" s="63"/>
+      <c r="AB63" s="63"/>
+      <c r="AC63" s="63"/>
+      <c r="AD63" s="63"/>
+      <c r="AE63" s="63"/>
+      <c r="AF63" s="64"/>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C64" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="67"/>
+    </row>
+    <row r="65" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C65" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="67"/>
+    </row>
+    <row r="66" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C66" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="66"/>
+      <c r="Q66" s="66"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="66"/>
+      <c r="T66" s="66"/>
+      <c r="U66" s="66"/>
+      <c r="V66" s="66"/>
+      <c r="W66" s="66"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="66"/>
+      <c r="Z66" s="66"/>
+      <c r="AA66" s="66"/>
+      <c r="AB66" s="66"/>
+      <c r="AC66" s="66"/>
+      <c r="AD66" s="66"/>
+      <c r="AE66" s="66"/>
+      <c r="AF66" s="67"/>
+    </row>
+    <row r="67" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C67" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="S61" s="64"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="183"/>
-      <c r="W61" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="X61" s="63"/>
-      <c r="Y61" s="63"/>
-      <c r="Z61" s="63"/>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC61" s="64"/>
-      <c r="AD61" s="64"/>
-      <c r="AE61" s="64"/>
-      <c r="AF61" s="183"/>
-    </row>
-    <row r="62" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="193" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="194"/>
-      <c r="E62" s="194"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="194"/>
-      <c r="H62" s="194"/>
-      <c r="I62" s="194"/>
-      <c r="J62" s="194"/>
-      <c r="K62" s="194"/>
-      <c r="L62" s="194"/>
-      <c r="M62" s="194"/>
-      <c r="N62" s="194"/>
-      <c r="O62" s="194"/>
-      <c r="P62" s="194"/>
-      <c r="Q62" s="194"/>
-      <c r="R62" s="194"/>
-      <c r="S62" s="194"/>
-      <c r="T62" s="194"/>
-      <c r="U62" s="194"/>
-      <c r="V62" s="194"/>
-      <c r="W62" s="194"/>
-      <c r="X62" s="194"/>
-      <c r="Y62" s="194"/>
-      <c r="Z62" s="194"/>
-      <c r="AA62" s="194"/>
-      <c r="AB62" s="194"/>
-      <c r="AC62" s="194"/>
-      <c r="AD62" s="194"/>
-      <c r="AE62" s="194"/>
-      <c r="AF62" s="195"/>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C63" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="197"/>
-      <c r="E63" s="197"/>
-      <c r="F63" s="197"/>
-      <c r="G63" s="197"/>
-      <c r="H63" s="197"/>
-      <c r="I63" s="197"/>
-      <c r="J63" s="197"/>
-      <c r="K63" s="197"/>
-      <c r="L63" s="197"/>
-      <c r="M63" s="197"/>
-      <c r="N63" s="197"/>
-      <c r="O63" s="197"/>
-      <c r="P63" s="197"/>
-      <c r="Q63" s="197"/>
-      <c r="R63" s="197"/>
-      <c r="S63" s="197"/>
-      <c r="T63" s="197"/>
-      <c r="U63" s="197"/>
-      <c r="V63" s="197"/>
-      <c r="W63" s="197"/>
-      <c r="X63" s="197"/>
-      <c r="Y63" s="197"/>
-      <c r="Z63" s="197"/>
-      <c r="AA63" s="197"/>
-      <c r="AB63" s="197"/>
-      <c r="AC63" s="197"/>
-      <c r="AD63" s="197"/>
-      <c r="AE63" s="197"/>
-      <c r="AF63" s="198"/>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C64" s="176" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="177"/>
-      <c r="E64" s="177"/>
-      <c r="F64" s="177"/>
-      <c r="G64" s="177"/>
-      <c r="H64" s="177"/>
-      <c r="I64" s="177"/>
-      <c r="J64" s="177"/>
-      <c r="K64" s="177"/>
-      <c r="L64" s="177"/>
-      <c r="M64" s="177"/>
-      <c r="N64" s="177"/>
-      <c r="O64" s="177"/>
-      <c r="P64" s="177"/>
-      <c r="Q64" s="177"/>
-      <c r="R64" s="177"/>
-      <c r="S64" s="177"/>
-      <c r="T64" s="177"/>
-      <c r="U64" s="177"/>
-      <c r="V64" s="177"/>
-      <c r="W64" s="177"/>
-      <c r="X64" s="177"/>
-      <c r="Y64" s="177"/>
-      <c r="Z64" s="177"/>
-      <c r="AA64" s="177"/>
-      <c r="AB64" s="177"/>
-      <c r="AC64" s="177"/>
-      <c r="AD64" s="177"/>
-      <c r="AE64" s="177"/>
-      <c r="AF64" s="178"/>
-    </row>
-    <row r="65" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C65" s="176" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="177"/>
-      <c r="E65" s="177"/>
-      <c r="F65" s="177"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="177"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="177"/>
-      <c r="L65" s="177"/>
-      <c r="M65" s="177"/>
-      <c r="N65" s="177"/>
-      <c r="O65" s="177"/>
-      <c r="P65" s="177"/>
-      <c r="Q65" s="177"/>
-      <c r="R65" s="177"/>
-      <c r="S65" s="177"/>
-      <c r="T65" s="177"/>
-      <c r="U65" s="177"/>
-      <c r="V65" s="177"/>
-      <c r="W65" s="177"/>
-      <c r="X65" s="177"/>
-      <c r="Y65" s="177"/>
-      <c r="Z65" s="177"/>
-      <c r="AA65" s="177"/>
-      <c r="AB65" s="177"/>
-      <c r="AC65" s="177"/>
-      <c r="AD65" s="177"/>
-      <c r="AE65" s="177"/>
-      <c r="AF65" s="178"/>
-    </row>
-    <row r="66" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C66" s="176" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="177"/>
-      <c r="E66" s="177"/>
-      <c r="F66" s="177"/>
-      <c r="G66" s="177"/>
-      <c r="H66" s="177"/>
-      <c r="I66" s="177"/>
-      <c r="J66" s="177"/>
-      <c r="K66" s="177"/>
-      <c r="L66" s="177"/>
-      <c r="M66" s="177"/>
-      <c r="N66" s="177"/>
-      <c r="O66" s="177"/>
-      <c r="P66" s="177"/>
-      <c r="Q66" s="177"/>
-      <c r="R66" s="177"/>
-      <c r="S66" s="177"/>
-      <c r="T66" s="177"/>
-      <c r="U66" s="177"/>
-      <c r="V66" s="177"/>
-      <c r="W66" s="177"/>
-      <c r="X66" s="177"/>
-      <c r="Y66" s="177"/>
-      <c r="Z66" s="177"/>
-      <c r="AA66" s="177"/>
-      <c r="AB66" s="177"/>
-      <c r="AC66" s="177"/>
-      <c r="AD66" s="177"/>
-      <c r="AE66" s="177"/>
-      <c r="AF66" s="178"/>
-    </row>
-    <row r="67" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C67" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="177"/>
-      <c r="E67" s="177"/>
-      <c r="F67" s="177"/>
-      <c r="G67" s="177"/>
-      <c r="H67" s="177"/>
-      <c r="I67" s="177"/>
-      <c r="J67" s="177"/>
-      <c r="K67" s="177"/>
-      <c r="L67" s="177"/>
-      <c r="M67" s="177"/>
-      <c r="N67" s="177"/>
-      <c r="O67" s="177"/>
-      <c r="P67" s="177"/>
-      <c r="Q67" s="177"/>
-      <c r="R67" s="177"/>
-      <c r="S67" s="177"/>
-      <c r="T67" s="177"/>
-      <c r="U67" s="177"/>
-      <c r="V67" s="177"/>
-      <c r="W67" s="177"/>
-      <c r="X67" s="177"/>
-      <c r="Y67" s="177"/>
-      <c r="Z67" s="177"/>
-      <c r="AA67" s="177"/>
-      <c r="AB67" s="177"/>
-      <c r="AC67" s="177"/>
-      <c r="AD67" s="177"/>
-      <c r="AE67" s="177"/>
-      <c r="AF67" s="178"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="66"/>
+      <c r="Z67" s="66"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="66"/>
+      <c r="AC67" s="66"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="67"/>
     </row>
     <row r="68" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="179" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="180"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="180"/>
-      <c r="G68" s="180"/>
-      <c r="H68" s="180"/>
-      <c r="I68" s="180"/>
-      <c r="J68" s="180"/>
-      <c r="K68" s="180"/>
-      <c r="L68" s="180"/>
-      <c r="M68" s="180"/>
-      <c r="N68" s="180"/>
-      <c r="O68" s="180"/>
-      <c r="P68" s="180"/>
-      <c r="Q68" s="180"/>
-      <c r="R68" s="180"/>
-      <c r="S68" s="180"/>
-      <c r="T68" s="180"/>
-      <c r="U68" s="180"/>
-      <c r="V68" s="180"/>
-      <c r="W68" s="180"/>
-      <c r="X68" s="180"/>
-      <c r="Y68" s="180"/>
-      <c r="Z68" s="180"/>
-      <c r="AA68" s="180"/>
-      <c r="AB68" s="180"/>
-      <c r="AC68" s="180"/>
-      <c r="AD68" s="180"/>
-      <c r="AE68" s="180"/>
-      <c r="AF68" s="181"/>
+      <c r="C68" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="80"/>
+      <c r="AA68" s="80"/>
+      <c r="AB68" s="80"/>
+      <c r="AC68" s="80"/>
+      <c r="AD68" s="80"/>
+      <c r="AE68" s="80"/>
+      <c r="AF68" s="81"/>
     </row>
     <row r="69" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="54"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="54"/>
-      <c r="AD69" s="54"/>
-      <c r="AE69" s="54"/>
-      <c r="AF69" s="55"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
+      <c r="I69" s="175"/>
+      <c r="J69" s="175"/>
+      <c r="K69" s="175"/>
+      <c r="L69" s="175"/>
+      <c r="M69" s="175"/>
+      <c r="N69" s="175"/>
+      <c r="O69" s="175"/>
+      <c r="P69" s="175"/>
+      <c r="Q69" s="175"/>
+      <c r="R69" s="175"/>
+      <c r="S69" s="175"/>
+      <c r="T69" s="175"/>
+      <c r="U69" s="175"/>
+      <c r="V69" s="175"/>
+      <c r="W69" s="175"/>
+      <c r="X69" s="175"/>
+      <c r="Y69" s="175"/>
+      <c r="Z69" s="175"/>
+      <c r="AA69" s="175"/>
+      <c r="AB69" s="175"/>
+      <c r="AC69" s="175"/>
+      <c r="AD69" s="175"/>
+      <c r="AE69" s="175"/>
+      <c r="AF69" s="176"/>
     </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C70" s="48"/>
@@ -4124,248 +4124,321 @@
       <c r="AF73" s="48"/>
     </row>
     <row r="77" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C77" s="175" t="s">
+      <c r="C77" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="175"/>
-      <c r="E77" s="175"/>
-      <c r="F77" s="175"/>
-      <c r="G77" s="175"/>
-      <c r="H77" s="175"/>
-      <c r="I77" s="175"/>
-      <c r="J77" s="175"/>
-      <c r="K77" s="175"/>
-      <c r="L77" s="175"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
     </row>
     <row r="78" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C78" s="175" t="s">
+      <c r="C78" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="175"/>
-      <c r="E78" s="175"/>
-      <c r="F78" s="175"/>
-      <c r="G78" s="175"/>
-      <c r="H78" s="175"/>
-      <c r="I78" s="175"/>
-      <c r="J78" s="175"/>
-      <c r="K78" s="175"/>
-      <c r="L78" s="175"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
     </row>
     <row r="79" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C79" s="175" t="s">
+      <c r="C79" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="175"/>
-      <c r="E79" s="175"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="175"/>
-      <c r="H79" s="175" t="s">
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="I79" s="175"/>
-      <c r="J79" s="175"/>
-      <c r="K79" s="175"/>
-      <c r="L79" s="175"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
     </row>
     <row r="80" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C80" s="175" t="s">
+      <c r="C80" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="175" t="s">
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="I80" s="175"/>
-      <c r="J80" s="175"/>
-      <c r="K80" s="175"/>
-      <c r="L80" s="175"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="92"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="92"/>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C81" s="175" t="s">
+      <c r="C81" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="175"/>
-      <c r="E81" s="175"/>
-      <c r="F81" s="175"/>
-      <c r="G81" s="175"/>
-      <c r="H81" s="175" t="s">
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="175"/>
-      <c r="J81" s="175"/>
-      <c r="K81" s="175"/>
-      <c r="L81" s="175"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="92"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="92"/>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C82" s="175" t="s">
+      <c r="C82" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="175"/>
-      <c r="G82" s="175"/>
-      <c r="H82" s="175" t="s">
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="I82" s="175"/>
-      <c r="J82" s="175"/>
-      <c r="K82" s="175"/>
-      <c r="L82" s="175"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="92"/>
+      <c r="L82" s="92"/>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C83" s="175" t="s">
+      <c r="C83" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
-      <c r="F83" s="175"/>
-      <c r="G83" s="175"/>
-      <c r="H83" s="175" t="s">
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="I83" s="175"/>
-      <c r="J83" s="175"/>
-      <c r="K83" s="175"/>
-      <c r="L83" s="175"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="92"/>
     </row>
     <row r="84" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C84" s="175" t="s">
+      <c r="C84" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="175" t="s">
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="175"/>
-      <c r="J84" s="175"/>
-      <c r="K84" s="175"/>
-      <c r="L84" s="175"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="92"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="92"/>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C85" s="175" t="s">
+      <c r="C85" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
-      <c r="G85" s="175"/>
-      <c r="H85" s="175"/>
-      <c r="I85" s="175"/>
-      <c r="J85" s="175"/>
-      <c r="K85" s="175"/>
-      <c r="L85" s="175"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="92"/>
+      <c r="L85" s="92"/>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C86" s="175" t="s">
+      <c r="C86" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
-      <c r="G86" s="175"/>
-      <c r="H86" s="175"/>
-      <c r="I86" s="175"/>
-      <c r="J86" s="175"/>
-      <c r="K86" s="175"/>
-      <c r="L86" s="175"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C87" s="175" t="s">
+      <c r="C87" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
-      <c r="G87" s="175"/>
-      <c r="H87" s="175"/>
-      <c r="I87" s="175"/>
-      <c r="J87" s="175"/>
-      <c r="K87" s="175"/>
-      <c r="L87" s="175"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="92"/>
+      <c r="L87" s="92"/>
     </row>
     <row r="88" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C88" s="175" t="s">
+      <c r="C88" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
-      <c r="G88" s="175"/>
-      <c r="H88" s="175"/>
-      <c r="I88" s="175"/>
-      <c r="J88" s="175"/>
-      <c r="K88" s="175"/>
-      <c r="L88" s="175"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="92"/>
+      <c r="I88" s="92"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="92"/>
+      <c r="L88" s="92"/>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C89" s="175" t="s">
+      <c r="C89" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
-      <c r="G89" s="175"/>
-      <c r="H89" s="175"/>
-      <c r="I89" s="175"/>
-      <c r="J89" s="175"/>
-      <c r="K89" s="175"/>
-      <c r="L89" s="175"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="92"/>
+      <c r="L89" s="92"/>
     </row>
     <row r="90" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C90" s="175" t="s">
+      <c r="C90" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="175"/>
-      <c r="E90" s="175"/>
-      <c r="F90" s="175"/>
-      <c r="G90" s="175"/>
-      <c r="H90" s="175"/>
-      <c r="I90" s="175"/>
-      <c r="J90" s="175"/>
-      <c r="K90" s="175"/>
-      <c r="L90" s="175"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="92"/>
+      <c r="J90" s="92"/>
+      <c r="K90" s="92"/>
+      <c r="L90" s="92"/>
     </row>
     <row r="91" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C91" s="175" t="s">
+      <c r="C91" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="175"/>
-      <c r="G91" s="175"/>
-      <c r="H91" s="175"/>
-      <c r="I91" s="175"/>
-      <c r="J91" s="175"/>
-      <c r="K91" s="175"/>
-      <c r="L91" s="175"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
+      <c r="L91" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="C52:AF52"/>
-    <mergeCell ref="C53:L53"/>
-    <mergeCell ref="M53:V53"/>
-    <mergeCell ref="W53:AF53"/>
-    <mergeCell ref="C62:AF62"/>
-    <mergeCell ref="C63:AF63"/>
-    <mergeCell ref="C64:AF64"/>
-    <mergeCell ref="C65:AF65"/>
-    <mergeCell ref="C66:AF66"/>
-    <mergeCell ref="M54:V54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R55:V55"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="W54:AF54"/>
-    <mergeCell ref="W55:AA55"/>
-    <mergeCell ref="AB55:AF55"/>
-    <mergeCell ref="W56:AA56"/>
-    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="C69:AF69"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C31:S31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="Z20:AA24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C77:L77"/>
+    <mergeCell ref="C78:L78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="C86:L86"/>
+    <mergeCell ref="C87:L87"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C89:L89"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C85:L85"/>
     <mergeCell ref="C67:AF67"/>
     <mergeCell ref="C68:AF68"/>
     <mergeCell ref="W59:AA59"/>
@@ -4390,98 +4463,25 @@
     <mergeCell ref="R60:V60"/>
     <mergeCell ref="W60:AA60"/>
     <mergeCell ref="AB60:AF60"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="C86:L86"/>
-    <mergeCell ref="C87:L87"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C89:L89"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C77:L77"/>
-    <mergeCell ref="C78:L78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="F24:S24"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C13:S13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="F21:S21"/>
-    <mergeCell ref="F22:S22"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="Z20:AA24"/>
-    <mergeCell ref="C69:AF69"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C31:S31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C52:AF52"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="M53:V53"/>
+    <mergeCell ref="W53:AF53"/>
+    <mergeCell ref="C62:AF62"/>
+    <mergeCell ref="C63:AF63"/>
+    <mergeCell ref="C64:AF64"/>
+    <mergeCell ref="C65:AF65"/>
+    <mergeCell ref="C66:AF66"/>
+    <mergeCell ref="M54:V54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="W54:AF54"/>
+    <mergeCell ref="W55:AA55"/>
+    <mergeCell ref="AB55:AF55"/>
+    <mergeCell ref="W56:AA56"/>
+    <mergeCell ref="AB56:AF56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
